--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V201"/>
+  <dimension ref="A1:V203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
       <c r="J10" t="n">
-        <v>5.01</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7.44</v>
+        <v>2.59</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.15</v>
+        <v>3.61</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.79</v>
+        <v>3.53</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>3.22</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>2.83</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>08/04/2023 14:56</t>
+          <t>08/04/2023 14:55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.21</v>
+        <v>5.01</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.59</v>
+        <v>7.44</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.61</v>
+        <v>4.15</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.53</v>
+        <v>4.79</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.22</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.83</v>
+        <v>1.47</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>08/04/2023 14:55</t>
+          <t>08/04/2023 14:56</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.01</v>
+        <v>1.63</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.99</v>
+        <v>1.72</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:59</t>
+          <t>16/04/2023 14:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.38</v>
+        <v>4.16</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.16</v>
+        <v>3.96</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:47</t>
+          <t>16/04/2023 14:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>5.52</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.65</v>
+        <v>5.04</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:59</t>
+          <t>16/04/2023 14:53</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hammarby/2VHles3B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-varnamo/8rmkgLXN/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.63</v>
+        <v>3.01</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.72</v>
+        <v>2.99</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:58</t>
+          <t>16/04/2023 14:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.16</v>
+        <v>3.38</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.96</v>
+        <v>3.16</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:58</t>
+          <t>16/04/2023 14:47</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.52</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.04</v>
+        <v>2.65</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:53</t>
+          <t>16/04/2023 14:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-varnamo/8rmkgLXN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hammarby/2VHles3B/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.58</v>
+        <v>3.18</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.99</v>
+        <v>3.51</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.46</v>
+        <v>3.59</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.36</v>
+        <v>2.3</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.04</v>
+        <v>2.21</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,22 +3617,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.18</v>
+        <v>1.58</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.51</v>
+        <v>1.99</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,15 +3640,15 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.59</v>
+        <v>4.46</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>5.36</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.21</v>
+        <v>4.04</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
         </is>
       </c>
     </row>
@@ -3701,30 +3701,30 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,40 +3732,40 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.97</v>
+        <v>4.08</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:22</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>8.300000000000001</v>
+        <v>4.73</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>10.38</v>
+        <v>3.6</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:23</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
         </is>
       </c>
     </row>
@@ -3793,30 +3793,30 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,40 +3824,40 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.08</v>
+        <v>5.97</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:22</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.73</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.6</v>
+        <v>10.38</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:23</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.78</v>
+        <v>3.81</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.71</v>
+        <v>3.27</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.34</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>5.07</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:43</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.81</v>
+        <v>1.78</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>4.34</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.18</v>
+        <v>5.07</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:43</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.98</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:46</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.25</v>
+        <v>3.78</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.04</v>
+        <v>3.96</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:39</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.56</v>
+        <v>3.79</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.79</v>
+        <v>4.09</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.01</v>
+        <v>1.45</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.99</v>
+        <v>4.38</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.41</v>
+        <v>4.74</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.37</v>
+        <v>6.74</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.21</v>
+        <v>7.7</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>2.94</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>2.98</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:46</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.96</v>
+        <v>3.04</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:39</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.79</v>
+        <v>2.56</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.09</v>
+        <v>2.79</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.45</v>
+        <v>2.01</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.38</v>
+        <v>3.99</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>6.74</v>
+        <v>5.37</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>7.7</v>
+        <v>4.21</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>4.57</v>
+        <v>1.93</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>1.99</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.78</v>
+        <v>3.96</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.47</v>
+        <v>4.15</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>2.94</v>
+        <v>4.57</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.61</v>
+        <v>3.82</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.42</v>
+        <v>4.47</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:57</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.37</v>
+        <v>1.78</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.37</v>
+        <v>1.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.79</v>
+        <v>3.2</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.75</v>
+        <v>3.61</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.96</v>
+        <v>3.42</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:57</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.69</v>
+        <v>2.37</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.56</v>
+        <v>2.37</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
         </is>
       </c>
     </row>
@@ -4897,46 +4897,46 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Brommapojkarna</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.51</v>
+        <v>3.96</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,15 +4944,15 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.96</v>
+        <v>3.69</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.15</v>
+        <v>4.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
         </is>
       </c>
     </row>
@@ -5173,30 +5173,30 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>2.74</v>
+        <v>3.32</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.87</v>
+        <v>3.36</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,40 +5204,40 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.33</v>
+        <v>3.69</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.66</v>
+        <v>3.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
+          <t>08/05/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>03/05/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R52" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:56</t>
-        </is>
-      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
         </is>
       </c>
     </row>
@@ -5265,62 +5265,62 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>3.32</v>
+        <v>2.77</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.36</v>
+        <v>2.87</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>08/05/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>03/05/2023 19:13</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:52</t>
-        </is>
-      </c>
       <c r="R53" t="n">
-        <v>2.14</v>
+        <v>2.62</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.15</v>
+        <v>2.56</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5384,11 +5384,11 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>08/05/2023 18:54</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.47</v>
+        <v>3.66</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>08/05/2023 18:59</t>
+          <t>08/05/2023 18:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.39</v>
+        <v>3.69</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:25</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.47</v>
+        <v>3.91</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.5</v>
+        <v>4.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.69</v>
+        <v>3.39</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:25</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.91</v>
+        <v>2.47</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.06</v>
+        <v>2.5</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>04/06/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>29/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
           <t>04/06/2023 17:29</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>28/05/2023 17:42</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>04/06/2023 17:29</t>
-        </is>
-      </c>
       <c r="R88" t="n">
-        <v>3.23</v>
+        <v>4.28</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 17:29</t>
+          <t>04/06/2023 17:27</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
         </is>
       </c>
     </row>
@@ -8577,46 +8577,46 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>04/06/2023 17:28</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,24 +8624,24 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.28</v>
+        <v>3.23</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.09</v>
+        <v>4.46</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>04/06/2023 17:27</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>2</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.17</v>
+        <v>4.16</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.42</v>
+        <v>2.76</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.34</v>
+        <v>1.94</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/06/2023 14:59</t>
+          <t>11/06/2023 14:55</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.16</v>
+        <v>2.17</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.76</v>
+        <v>3.42</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.94</v>
+        <v>3.34</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>11/06/2023 14:55</t>
+          <t>11/06/2023 14:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.56</v>
+        <v>2.87</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>4.16</v>
+        <v>3.04</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,32 +10180,32 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.49</v>
+        <v>2.96</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
+          <t>03/07/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>17/06/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
           <t>03/07/2023 18:59</t>
         </is>
       </c>
-      <c r="R106" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>17/06/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T106" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>03/07/2023 18:59</t>
-        </is>
-      </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.87</v>
+        <v>1.56</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.96</v>
+        <v>4.49</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>03/07/2023 18:57</t>
+          <t>03/07/2023 18:59</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.89</v>
+        <v>4.82</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.94</v>
+        <v>5.93</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
         </is>
       </c>
     </row>
@@ -11337,46 +11337,46 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>16/07/2023 14:40</t>
+          <t>16/07/2023 14:42</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.64</v>
+        <v>4.96</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.08</v>
+        <v>5.44</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.39</v>
+        <v>6.61</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.17</v>
+        <v>8.41</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
         </is>
       </c>
     </row>
@@ -11429,46 +11429,46 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16/07/2023 14:42</t>
+          <t>16/07/2023 14:40</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.96</v>
+        <v>3.64</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5.44</v>
+        <v>4.08</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.61</v>
+        <v>4.39</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>8.41</v>
+        <v>5.17</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
         </is>
       </c>
     </row>
@@ -12809,30 +12809,30 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.65</v>
+        <v>3.51</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.01</v>
+        <v>3.56</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -12840,40 +12840,40 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
+          <t>30/07/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>24/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
           <t>30/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R135" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>23/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T135" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
         </is>
       </c>
     </row>
@@ -12901,30 +12901,30 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>3.51</v>
+        <v>1.65</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.56</v>
+        <v>2.01</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -12932,40 +12932,40 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
+          <t>30/07/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>23/07/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
           <t>30/07/2023 14:58</t>
         </is>
       </c>
-      <c r="R136" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>24/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:59</t>
-        </is>
-      </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.33</v>
+        <v>3.51</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>31/07/2023 18:57</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>6.32</v>
+        <v>3.23</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>5.65</v>
+        <v>3.59</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>10.59</v>
+        <v>2.77</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>9.94</v>
+        <v>2.15</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.72</v>
+        <v>1.25</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>3.51</v>
+        <v>1.33</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 18:57</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.23</v>
+        <v>6.32</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.59</v>
+        <v>5.65</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.77</v>
+        <v>10.59</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.15</v>
+        <v>9.94</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>3</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Mjallby</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>3</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.06</v>
+        <v>2.3</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.09</v>
+        <v>3.56</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.07</v>
+        <v>3.37</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:37</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.74</v>
+        <v>3.73</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.66</v>
+        <v>3.37</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:58</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
         <v>3</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
       <c r="J145" t="n">
-        <v>2.04</v>
+        <v>2.91</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.3</v>
+        <v>3.06</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.56</v>
+        <v>3.09</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:37</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.73</v>
+        <v>2.74</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>3.37</v>
+        <v>2.66</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>3.11</v>
+        <v>1.22</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>3.26</v>
+        <v>1.32</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:27</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.72</v>
+        <v>7.55</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.48</v>
+        <v>6.37</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:29</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.23</v>
+        <v>12.03</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.3</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:28</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,63 +14197,63 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.49</v>
+        <v>3.11</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.54</v>
+        <v>3.26</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:27</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.4</v>
+        <v>3.72</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>13/08/2023 16:37</t>
+          <t>13/08/2023 17:29</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.92</v>
+        <v>2.23</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.97</v>
+        <v>2.3</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:28</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="n">
-        <v>1.22</v>
+        <v>2.49</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.32</v>
+        <v>2.54</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>7.55</v>
+        <v>3.4</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>6.37</v>
+        <v>3.33</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 16:37</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>12.03</v>
+        <v>2.92</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>8.359999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1.37</v>
+        <v>1.77</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:55</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>6</v>
+        <v>3.93</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>5.16</v>
+        <v>4.23</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>6.67</v>
+        <v>4.66</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.49</v>
+        <v>6.07</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="n">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:55</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.93</v>
+        <v>6</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4.23</v>
+        <v>5.16</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.66</v>
+        <v>6.67</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>6.07</v>
+        <v>5.49</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.38</v>
+        <v>2.77</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.49</v>
+        <v>2.81</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>5.17</v>
+        <v>3.27</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:08</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>7.8</v>
+        <v>2.75</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>7.11</v>
+        <v>2.71</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2.77</v>
+        <v>1.38</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.81</v>
+        <v>1.49</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.27</v>
+        <v>5.17</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.3</v>
+        <v>4.51</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:08</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>2.75</v>
+        <v>7.8</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>2.71</v>
+        <v>7.11</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.86</v>
+        <v>1.41</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.47</v>
+        <v>5.11</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:23</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.58</v>
+        <v>7.64</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>1.96</v>
+        <v>7.85</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:29</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J177" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.41</v>
+        <v>3.86</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>5.11</v>
+        <v>3.47</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:23</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>7.64</v>
+        <v>2.58</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>7.85</v>
+        <v>1.96</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:29</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,14 +18061,14 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>4.35</v>
+        <v>2.19</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>4.22</v>
+        <v>2.53</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.81</v>
+        <v>3.71</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>1.77</v>
+        <v>3.23</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>1.88</v>
+        <v>2.76</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -18153,14 +18153,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2.19</v>
+        <v>4.35</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.53</v>
+        <v>4.22</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.71</v>
+        <v>3.81</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.23</v>
+        <v>1.77</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.76</v>
+        <v>1.88</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
         </is>
       </c>
     </row>
@@ -18946,6 +18946,190 @@
       <c r="V201" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-brommapojkarna/Yucg6yng/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T202" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-mjallby/YLEA0XFU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T203" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-degerfors/69qPJfGh/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V203"/>
+  <dimension ref="A1:V204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.21</v>
+        <v>5.01</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.59</v>
+        <v>7.44</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.61</v>
+        <v>4.15</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.53</v>
+        <v>4.79</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.22</v>
+        <v>1.66</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.83</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>08/04/2023 14:55</t>
+          <t>08/04/2023 14:56</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
       <c r="J11" t="n">
-        <v>5.01</v>
+        <v>2.21</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7.44</v>
+        <v>2.59</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.15</v>
+        <v>3.61</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.79</v>
+        <v>3.53</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>3.22</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.47</v>
+        <v>2.83</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>08/04/2023 14:56</t>
+          <t>08/04/2023 14:55</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.63</v>
+        <v>3.01</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.72</v>
+        <v>2.99</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:58</t>
+          <t>16/04/2023 14:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.16</v>
+        <v>3.38</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.96</v>
+        <v>3.16</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:58</t>
+          <t>16/04/2023 14:47</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.52</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.04</v>
+        <v>2.65</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:53</t>
+          <t>16/04/2023 14:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-varnamo/8rmkgLXN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hammarby/2VHles3B/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.01</v>
+        <v>1.63</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.99</v>
+        <v>1.72</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:59</t>
+          <t>16/04/2023 14:58</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.38</v>
+        <v>4.16</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.16</v>
+        <v>3.96</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:47</t>
+          <t>16/04/2023 14:58</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>5.52</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.65</v>
+        <v>5.04</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:59</t>
+          <t>16/04/2023 14:53</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hammarby/2VHles3B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-varnamo/8rmkgLXN/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.18</v>
+        <v>1.58</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.51</v>
+        <v>1.99</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.59</v>
+        <v>4.46</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.3</v>
+        <v>5.36</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.21</v>
+        <v>4.04</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,22 +3617,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.58</v>
+        <v>3.18</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.99</v>
+        <v>3.51</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,15 +3640,15 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.46</v>
+        <v>3.59</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.36</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.04</v>
+        <v>2.21</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
         </is>
       </c>
     </row>
@@ -3701,30 +3701,30 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,40 +3732,40 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.08</v>
+        <v>5.97</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:22</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.73</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.6</v>
+        <v>10.38</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:23</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
         </is>
       </c>
     </row>
@@ -3793,30 +3793,30 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,40 +3824,40 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>5.97</v>
+        <v>4.08</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:22</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>8.300000000000001</v>
+        <v>4.73</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>10.38</v>
+        <v>3.6</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:23</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.81</v>
+        <v>1.78</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>4.34</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>5.07</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:43</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.78</v>
+        <v>3.81</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.71</v>
+        <v>3.27</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.34</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.07</v>
+        <v>2.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:43</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.95</v>
+        <v>2.94</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>2.98</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:46</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.96</v>
+        <v>3.04</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:39</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.79</v>
+        <v>2.56</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.09</v>
+        <v>2.79</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.45</v>
+        <v>2.01</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.38</v>
+        <v>3.99</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.74</v>
+        <v>5.37</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.7</v>
+        <v>4.21</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.98</v>
+        <v>1.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:46</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.25</v>
+        <v>3.78</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.04</v>
+        <v>3.96</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:39</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.56</v>
+        <v>3.79</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.79</v>
+        <v>4.09</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.01</v>
+        <v>1.45</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.99</v>
+        <v>4.38</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.41</v>
+        <v>4.74</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>5.37</v>
+        <v>6.74</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.21</v>
+        <v>7.7</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>1.93</v>
+        <v>4.57</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.99</v>
+        <v>8</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.51</v>
+        <v>4.47</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.96</v>
+        <v>1.78</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.15</v>
+        <v>1.47</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>6</v>
-      </c>
       <c r="J47" t="n">
-        <v>4.57</v>
+        <v>2.94</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.82</v>
+        <v>3.61</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.47</v>
+        <v>3.42</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:57</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.47</v>
+        <v>2.37</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.94</v>
+        <v>1.99</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.2</v>
+        <v>1.79</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.61</v>
+        <v>3.75</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.42</v>
+        <v>3.96</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:57</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.37</v>
+        <v>3.69</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.37</v>
+        <v>4.56</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
         <v>1.99</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1.79</v>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>04/05/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>04/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>3.96</v>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U49" t="inlineStr">
         <is>
           <t>04/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>04/05/2023 18:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
         </is>
       </c>
     </row>
@@ -5173,30 +5173,30 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.32</v>
+        <v>2.74</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.36</v>
+        <v>2.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,40 +5204,40 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.69</v>
+        <v>3.33</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.77</v>
+        <v>3.66</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>08/05/2023 18:52</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.14</v>
+        <v>2.68</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>08/05/2023 18:59</t>
+          <t>08/05/2023 18:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>2.77</v>
+        <v>3.32</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.87</v>
+        <v>3.36</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>08/05/2023 18:54</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.47</v>
+        <v>3.69</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.47</v>
+        <v>3.77</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>08/05/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>03/05/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:59</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5384,44 +5384,44 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>08/05/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N54" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O54" t="inlineStr">
+      <c r="R54" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S54" t="inlineStr">
         <is>
           <t>04/05/2023 19:12</t>
         </is>
       </c>
-      <c r="P54" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q54" t="inlineStr">
+      <c r="T54" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U54" t="inlineStr">
         <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R54" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T54" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:56</t>
-        </is>
-      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.89</v>
+        <v>4.27</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.33</v>
+        <v>4.02</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.74</v>
+        <v>6.38</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.38</v>
+        <v>6.31</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hacken/WtGSPDPa/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.27</v>
+        <v>3.89</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.02</v>
+        <v>4.33</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>6.38</v>
+        <v>3.74</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.31</v>
+        <v>4.38</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hacken/WtGSPDPa/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.69</v>
+        <v>3.39</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:25</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.91</v>
+        <v>2.47</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.06</v>
+        <v>2.5</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.39</v>
+        <v>3.69</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:25</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.47</v>
+        <v>3.91</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.5</v>
+        <v>4.06</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
         </is>
       </c>
     </row>
@@ -8485,46 +8485,46 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/06/2023 17:28</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -8532,24 +8532,24 @@
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.28</v>
+        <v>3.23</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.09</v>
+        <v>4.46</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 17:27</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
+          <t>04/06/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>29/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
           <t>04/06/2023 17:29</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>28/05/2023 17:42</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>04/06/2023 17:29</t>
-        </is>
-      </c>
       <c r="R89" t="n">
-        <v>3.23</v>
+        <v>4.28</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>04/06/2023 17:29</t>
+          <t>04/06/2023 17:27</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.16</v>
+        <v>2.17</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.76</v>
+        <v>3.42</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.94</v>
+        <v>3.34</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/06/2023 14:55</t>
+          <t>11/06/2023 14:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>2</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
       <c r="J97" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.17</v>
+        <v>4.16</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.42</v>
+        <v>2.76</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.34</v>
+        <v>1.94</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>11/06/2023 14:59</t>
+          <t>11/06/2023 14:55</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.87</v>
+        <v>1.56</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2.96</v>
+        <v>4.49</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>03/07/2023 18:57</t>
+          <t>03/07/2023 18:59</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.89</v>
+        <v>4.82</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.94</v>
+        <v>5.93</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.56</v>
+        <v>2.87</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.16</v>
+        <v>3.04</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,32 +10272,32 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.49</v>
+        <v>2.96</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
+          <t>03/07/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>17/06/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
           <t>03/07/2023 18:59</t>
         </is>
       </c>
-      <c r="R107" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>17/06/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T107" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>03/07/2023 18:59</t>
-        </is>
-      </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
         </is>
       </c>
     </row>
@@ -11337,46 +11337,46 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>16/07/2023 14:42</t>
+          <t>16/07/2023 14:40</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.96</v>
+        <v>3.64</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.44</v>
+        <v>4.08</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>6.61</v>
+        <v>4.39</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>8.41</v>
+        <v>5.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
         </is>
       </c>
     </row>
@@ -11429,46 +11429,46 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16/07/2023 14:40</t>
+          <t>16/07/2023 14:42</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.64</v>
+        <v>4.96</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.08</v>
+        <v>5.44</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.39</v>
+        <v>6.61</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.17</v>
+        <v>8.41</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
         </is>
       </c>
     </row>
@@ -12809,30 +12809,30 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>3.51</v>
+        <v>1.65</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.56</v>
+        <v>2.01</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -12840,40 +12840,40 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
+          <t>30/07/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>23/07/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
           <t>30/07/2023 14:58</t>
         </is>
       </c>
-      <c r="R135" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>24/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T135" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:59</t>
-        </is>
-      </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
         </is>
       </c>
     </row>
@@ -12901,30 +12901,30 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.65</v>
+        <v>3.51</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.01</v>
+        <v>3.56</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -12932,40 +12932,40 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
+          <t>30/07/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>24/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
           <t>30/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R136" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>23/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>2.72</v>
+        <v>1.25</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>3.51</v>
+        <v>1.33</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 18:57</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.23</v>
+        <v>6.32</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.59</v>
+        <v>5.65</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.77</v>
+        <v>10.59</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.15</v>
+        <v>9.94</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.33</v>
+        <v>3.51</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:57</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>6.32</v>
+        <v>3.23</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>5.65</v>
+        <v>3.59</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>10.59</v>
+        <v>2.77</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>9.94</v>
+        <v>2.15</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>3</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.04</v>
+        <v>2.91</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.3</v>
+        <v>3.06</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.56</v>
+        <v>3.09</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:37</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.73</v>
+        <v>2.74</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>3.37</v>
+        <v>2.66</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G145" t="n">
+        <v>3</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Mjallby</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>3</v>
-      </c>
       <c r="J145" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.06</v>
+        <v>2.3</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.09</v>
+        <v>3.56</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.07</v>
+        <v>3.37</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:37</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>2.74</v>
+        <v>3.73</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.66</v>
+        <v>3.37</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:58</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.22</v>
+        <v>3.11</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.32</v>
+        <v>3.26</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:27</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>7.55</v>
+        <v>3.72</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>6.37</v>
+        <v>3.48</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:29</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>12.03</v>
+        <v>2.23</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>8.359999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:28</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,63 +14197,63 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150" t="n">
-        <v>3.11</v>
+        <v>2.49</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.26</v>
+        <v>2.54</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:27</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:29</t>
+          <t>13/08/2023 16:37</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.23</v>
+        <v>2.92</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.3</v>
+        <v>2.97</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:28</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>2.49</v>
+        <v>1.22</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.54</v>
+        <v>1.32</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.4</v>
+        <v>7.55</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.33</v>
+        <v>6.37</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>13/08/2023 16:37</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.92</v>
+        <v>12.03</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2.97</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:55</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.93</v>
+        <v>6</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.23</v>
+        <v>5.16</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.66</v>
+        <v>6.67</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>6.07</v>
+        <v>5.49</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1.37</v>
+        <v>1.77</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:55</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>6</v>
+        <v>3.93</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>5.16</v>
+        <v>4.23</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>6.67</v>
+        <v>4.66</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>5.49</v>
+        <v>6.07</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.77</v>
+        <v>1.38</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.81</v>
+        <v>1.49</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.27</v>
+        <v>5.17</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.3</v>
+        <v>4.51</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:08</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>2.75</v>
+        <v>7.8</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2.71</v>
+        <v>7.11</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.38</v>
+        <v>2.77</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.49</v>
+        <v>2.81</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>5.17</v>
+        <v>3.27</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:08</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>7.8</v>
+        <v>2.75</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>7.11</v>
+        <v>2.71</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.41</v>
+        <v>3.06</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>5.11</v>
+        <v>3.42</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>5.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>7.64</v>
+        <v>2.48</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>7.85</v>
+        <v>2.44</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:29</t>
+          <t>03/09/2023 17:26</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-djurgarden/OUaAyQt2/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J176" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.06</v>
+        <v>3.86</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.43</v>
+        <v>3.85</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:23</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:26</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-djurgarden/OUaAyQt2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.86</v>
+        <v>1.41</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.47</v>
+        <v>5.11</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:23</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.58</v>
+        <v>7.64</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.96</v>
+        <v>7.85</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
         <v>1</v>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Hacken</t>
-        </is>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
       <c r="J190" t="n">
-        <v>3.51</v>
+        <v>5.32</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>3.63</v>
+        <v>6.74</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>24/09/2023 17:19</t>
+          <t>24/09/2023 17:29</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.8</v>
+        <v>4.21</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>4.02</v>
+        <v>4.87</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         </is>
       </c>
       <c r="R190" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>1.98</v>
+        <v>1.47</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>24/09/2023 17:19</t>
+          <t>24/09/2023 17:29</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hacken/KxXJixXa/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Hammarby</t>
-        </is>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
       <c r="J191" t="n">
-        <v>5.32</v>
+        <v>3.51</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,48 +17984,48 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>6.74</v>
+        <v>3.63</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
+          <t>24/09/2023 17:19</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
           <t>24/09/2023 17:29</t>
         </is>
       </c>
-      <c r="N191" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="O191" t="inlineStr">
+      <c r="R191" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S191" t="inlineStr">
         <is>
           <t>17/09/2023 16:43</t>
         </is>
       </c>
-      <c r="P191" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="Q191" t="inlineStr">
-        <is>
-          <t>24/09/2023 17:29</t>
-        </is>
-      </c>
-      <c r="R191" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:43</t>
-        </is>
-      </c>
       <c r="T191" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>24/09/2023 17:29</t>
+          <t>24/09/2023 17:19</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hacken/KxXJixXa/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,14 +18061,14 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2.19</v>
+        <v>4.35</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.53</v>
+        <v>4.22</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.71</v>
+        <v>3.81</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.23</v>
+        <v>1.77</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.76</v>
+        <v>1.88</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -18153,14 +18153,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>4.35</v>
+        <v>2.19</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>4.22</v>
+        <v>2.53</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.81</v>
+        <v>3.71</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>1.77</v>
+        <v>3.23</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>1.88</v>
+        <v>2.76</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
         </is>
       </c>
     </row>
@@ -18973,71 +18973,71 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>07/10/2023 14:43</t>
+          <t>07/10/2023 14:58</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.66</v>
+        <v>3.59</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>07/10/2023 14:43</t>
+          <t>07/10/2023 14:54</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>5.41</v>
+        <v>3.99</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="T202" t="n">
-        <v>4.95</v>
+        <v>4.34</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>07/10/2023 14:54</t>
+          <t>07/10/2023 14:58</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-mjallby/YLEA0XFU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-degerfors/69qPJfGh/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,163 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>01/10/2023 14:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>07/10/2023 14:58</t>
+          <t>07/10/2023 14:43</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>01/10/2023 14:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="P203" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T203" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-mjallby/YLEA0XFU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45206.72916666666</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Sirius</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
         <v>3.59</v>
       </c>
-      <c r="Q203" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:54</t>
-        </is>
-      </c>
-      <c r="R203" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:12</t>
-        </is>
-      </c>
-      <c r="T203" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="U203" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="V203" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-degerfors/69qPJfGh/</t>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T204" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-sirius/xzuLKz1n/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V204"/>
+  <dimension ref="A1:V207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
       <c r="J10" t="n">
-        <v>5.01</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7.44</v>
+        <v>2.59</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.15</v>
+        <v>3.61</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.79</v>
+        <v>3.53</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>3.22</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>2.83</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>08/04/2023 14:56</t>
+          <t>08/04/2023 14:55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.21</v>
+        <v>5.01</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.59</v>
+        <v>7.44</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.61</v>
+        <v>4.15</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.53</v>
+        <v>4.79</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.22</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.83</v>
+        <v>1.47</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>08/04/2023 14:55</t>
+          <t>08/04/2023 14:56</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.01</v>
+        <v>1.63</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.99</v>
+        <v>1.72</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:59</t>
+          <t>16/04/2023 14:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.38</v>
+        <v>4.16</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.16</v>
+        <v>3.96</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:47</t>
+          <t>16/04/2023 14:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>5.52</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.65</v>
+        <v>5.04</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:59</t>
+          <t>16/04/2023 14:53</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hammarby/2VHles3B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-varnamo/8rmkgLXN/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.63</v>
+        <v>3.01</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.72</v>
+        <v>2.99</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:58</t>
+          <t>16/04/2023 14:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.16</v>
+        <v>3.38</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.96</v>
+        <v>3.16</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:58</t>
+          <t>16/04/2023 14:47</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.52</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.04</v>
+        <v>2.65</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:53</t>
+          <t>16/04/2023 14:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-varnamo/8rmkgLXN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hammarby/2VHles3B/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.58</v>
+        <v>3.18</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.99</v>
+        <v>3.51</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.46</v>
+        <v>3.59</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.36</v>
+        <v>2.3</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.04</v>
+        <v>2.21</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,22 +3617,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.18</v>
+        <v>1.58</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.51</v>
+        <v>1.99</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,15 +3640,15 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.59</v>
+        <v>4.46</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>5.36</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.21</v>
+        <v>4.04</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
         </is>
       </c>
     </row>
@@ -3701,30 +3701,30 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,40 +3732,40 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.97</v>
+        <v>4.08</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:22</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>8.300000000000001</v>
+        <v>4.73</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>10.38</v>
+        <v>3.6</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:23</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
         </is>
       </c>
     </row>
@@ -3793,30 +3793,30 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,40 +3824,40 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.08</v>
+        <v>5.97</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:22</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.73</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.6</v>
+        <v>10.38</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:23</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.78</v>
+        <v>3.81</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.71</v>
+        <v>3.27</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.34</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>5.07</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:43</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.81</v>
+        <v>1.78</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>4.34</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.18</v>
+        <v>5.07</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:43</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.98</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:46</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.25</v>
+        <v>3.78</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.04</v>
+        <v>3.96</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:39</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.56</v>
+        <v>3.79</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.79</v>
+        <v>4.09</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.01</v>
+        <v>1.45</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.99</v>
+        <v>4.38</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.41</v>
+        <v>4.74</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.37</v>
+        <v>6.74</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.21</v>
+        <v>7.7</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>2.94</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>2.98</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:46</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.96</v>
+        <v>3.04</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:39</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.79</v>
+        <v>2.56</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.09</v>
+        <v>2.79</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.45</v>
+        <v>2.01</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.38</v>
+        <v>3.99</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>6.74</v>
+        <v>5.37</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>7.7</v>
+        <v>4.21</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>4.57</v>
+        <v>1.93</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>1.99</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.78</v>
+        <v>3.96</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.47</v>
+        <v>4.15</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>2.94</v>
+        <v>4.57</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.61</v>
+        <v>3.82</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.42</v>
+        <v>4.47</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:57</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.37</v>
+        <v>1.78</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.37</v>
+        <v>1.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.79</v>
+        <v>3.2</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.75</v>
+        <v>3.61</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.96</v>
+        <v>3.42</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:57</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.69</v>
+        <v>2.37</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.56</v>
+        <v>2.37</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
         </is>
       </c>
     </row>
@@ -4897,46 +4897,46 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Brommapojkarna</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.51</v>
+        <v>3.96</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,15 +4944,15 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.96</v>
+        <v>3.69</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.15</v>
+        <v>4.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
         </is>
       </c>
     </row>
@@ -5173,30 +5173,30 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>2.74</v>
+        <v>3.32</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.87</v>
+        <v>3.36</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,40 +5204,40 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.33</v>
+        <v>3.69</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.66</v>
+        <v>3.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
+          <t>08/05/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>03/05/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R52" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:56</t>
-        </is>
-      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
         </is>
       </c>
     </row>
@@ -5265,62 +5265,62 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>3.32</v>
+        <v>2.77</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.36</v>
+        <v>2.87</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>08/05/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>03/05/2023 19:13</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:52</t>
-        </is>
-      </c>
       <c r="R53" t="n">
-        <v>2.14</v>
+        <v>2.62</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.15</v>
+        <v>2.56</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5384,11 +5384,11 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>08/05/2023 18:54</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.47</v>
+        <v>3.66</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>08/05/2023 18:59</t>
+          <t>08/05/2023 18:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.27</v>
+        <v>3.92</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>6.38</v>
+        <v>4.55</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>6.31</v>
+        <v>4.08</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.61</v>
+        <v>4.33</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.08</v>
+        <v>4.38</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hacken/WtGSPDPa/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.89</v>
+        <v>4.27</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.33</v>
+        <v>4.02</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.74</v>
+        <v>6.38</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.38</v>
+        <v>6.31</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hacken/WtGSPDPa/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>04/06/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>29/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
           <t>04/06/2023 17:29</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>28/05/2023 17:42</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>04/06/2023 17:29</t>
-        </is>
-      </c>
       <c r="R88" t="n">
-        <v>3.23</v>
+        <v>4.28</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 17:29</t>
+          <t>04/06/2023 17:27</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
         </is>
       </c>
     </row>
@@ -8577,46 +8577,46 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>04/06/2023 17:28</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,24 +8624,24 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.28</v>
+        <v>3.23</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.09</v>
+        <v>4.46</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>04/06/2023 17:27</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>2</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.17</v>
+        <v>4.16</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.42</v>
+        <v>2.76</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.34</v>
+        <v>1.94</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/06/2023 14:59</t>
+          <t>11/06/2023 14:55</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.16</v>
+        <v>2.17</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.76</v>
+        <v>3.42</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.94</v>
+        <v>3.34</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>11/06/2023 14:55</t>
+          <t>11/06/2023 14:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.56</v>
+        <v>2.87</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>4.16</v>
+        <v>3.04</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,32 +10180,32 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.49</v>
+        <v>2.96</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
+          <t>03/07/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>17/06/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
           <t>03/07/2023 18:59</t>
         </is>
       </c>
-      <c r="R106" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>17/06/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T106" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>03/07/2023 18:59</t>
-        </is>
-      </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.87</v>
+        <v>1.56</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.96</v>
+        <v>4.49</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>03/07/2023 18:57</t>
+          <t>03/07/2023 18:59</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.89</v>
+        <v>4.82</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.94</v>
+        <v>5.93</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
         </is>
       </c>
     </row>
@@ -11337,46 +11337,46 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>16/07/2023 14:40</t>
+          <t>16/07/2023 14:42</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.64</v>
+        <v>4.96</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.08</v>
+        <v>5.44</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.39</v>
+        <v>6.61</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.17</v>
+        <v>8.41</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
         </is>
       </c>
     </row>
@@ -11429,46 +11429,46 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16/07/2023 14:42</t>
+          <t>16/07/2023 14:40</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.96</v>
+        <v>3.64</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5.44</v>
+        <v>4.08</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.61</v>
+        <v>4.39</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>8.41</v>
+        <v>5.17</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
         </is>
       </c>
     </row>
@@ -12809,30 +12809,30 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.65</v>
+        <v>3.51</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.01</v>
+        <v>3.56</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -12840,40 +12840,40 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
+          <t>30/07/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>24/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
           <t>30/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R135" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>23/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T135" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
         </is>
       </c>
     </row>
@@ -12901,30 +12901,30 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>3.51</v>
+        <v>1.65</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.56</v>
+        <v>2.01</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -12932,40 +12932,40 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
+          <t>30/07/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>23/07/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
           <t>30/07/2023 14:58</t>
         </is>
       </c>
-      <c r="R136" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>24/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:59</t>
-        </is>
-      </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.33</v>
+        <v>3.51</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>31/07/2023 18:57</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>6.32</v>
+        <v>3.23</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>5.65</v>
+        <v>3.59</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>10.59</v>
+        <v>2.77</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>9.94</v>
+        <v>2.15</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.72</v>
+        <v>1.25</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>3.51</v>
+        <v>1.33</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 18:57</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.23</v>
+        <v>6.32</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.59</v>
+        <v>5.65</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.77</v>
+        <v>10.59</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.15</v>
+        <v>9.94</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>3</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Mjallby</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>3</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.06</v>
+        <v>2.3</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.09</v>
+        <v>3.56</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.07</v>
+        <v>3.37</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:37</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.74</v>
+        <v>3.73</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.66</v>
+        <v>3.37</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:58</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
         <v>3</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
       <c r="J145" t="n">
-        <v>2.04</v>
+        <v>2.91</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.3</v>
+        <v>3.06</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.56</v>
+        <v>3.09</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:37</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.73</v>
+        <v>2.74</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>3.37</v>
+        <v>2.66</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>3.11</v>
+        <v>1.22</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>3.26</v>
+        <v>1.32</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:27</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.72</v>
+        <v>7.55</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.48</v>
+        <v>6.37</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:29</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.23</v>
+        <v>12.03</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.3</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:28</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,63 +14197,63 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.49</v>
+        <v>3.11</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.54</v>
+        <v>3.26</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:27</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.4</v>
+        <v>3.72</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>13/08/2023 16:37</t>
+          <t>13/08/2023 17:29</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.92</v>
+        <v>2.23</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.97</v>
+        <v>2.3</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:28</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="n">
-        <v>1.22</v>
+        <v>2.49</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.32</v>
+        <v>2.54</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>7.55</v>
+        <v>3.4</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>6.37</v>
+        <v>3.33</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 16:37</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>12.03</v>
+        <v>2.92</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>8.359999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1.37</v>
+        <v>1.77</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:55</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>6</v>
+        <v>3.93</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>5.16</v>
+        <v>4.23</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>6.67</v>
+        <v>4.66</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.49</v>
+        <v>6.07</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="n">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:55</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.93</v>
+        <v>6</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4.23</v>
+        <v>5.16</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.66</v>
+        <v>6.67</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>6.07</v>
+        <v>5.49</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.38</v>
+        <v>2.77</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.49</v>
+        <v>2.81</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>5.17</v>
+        <v>3.27</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:08</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>7.8</v>
+        <v>2.75</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>7.11</v>
+        <v>2.71</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2.77</v>
+        <v>1.38</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.81</v>
+        <v>1.49</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.27</v>
+        <v>5.17</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.3</v>
+        <v>4.51</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:08</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>2.75</v>
+        <v>7.8</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>2.71</v>
+        <v>7.11</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.06</v>
+        <v>1.41</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.42</v>
+        <v>5.11</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.43</v>
+        <v>5.09</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.48</v>
+        <v>7.64</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.44</v>
+        <v>7.85</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:26</t>
+          <t>03/09/2023 17:29</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-djurgarden/OUaAyQt2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.86</v>
+        <v>3.06</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.85</v>
+        <v>3.43</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:23</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:26</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-djurgarden/OUaAyQt2/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J177" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.41</v>
+        <v>3.86</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>5.11</v>
+        <v>3.47</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:23</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>7.64</v>
+        <v>2.58</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>7.85</v>
+        <v>1.96</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:29</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.9</v>
+        <v>4.39</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.8</v>
+        <v>5.54</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:57</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.84</v>
+        <v>5.63</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.56</v>
+        <v>7.87</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>4.39</v>
+        <v>3.9</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>5.54</v>
+        <v>3.8</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:57</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>5.63</v>
+        <v>3.84</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>7.87</v>
+        <v>4.56</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Hammarby</t>
-        </is>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
       <c r="J190" t="n">
-        <v>5.32</v>
+        <v>3.51</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,48 +17892,48 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>6.74</v>
+        <v>3.63</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
+          <t>24/09/2023 17:19</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
           <t>24/09/2023 17:29</t>
         </is>
       </c>
-      <c r="N190" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="O190" t="inlineStr">
+      <c r="R190" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S190" t="inlineStr">
         <is>
           <t>17/09/2023 16:43</t>
         </is>
       </c>
-      <c r="P190" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="Q190" t="inlineStr">
-        <is>
-          <t>24/09/2023 17:29</t>
-        </is>
-      </c>
-      <c r="R190" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:43</t>
-        </is>
-      </c>
       <c r="T190" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>24/09/2023 17:29</t>
+          <t>24/09/2023 17:19</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hacken/KxXJixXa/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
         <v>1</v>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Hacken</t>
-        </is>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
       <c r="J191" t="n">
-        <v>3.51</v>
+        <v>5.32</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>3.63</v>
+        <v>6.74</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>24/09/2023 17:19</t>
+          <t>24/09/2023 17:29</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.8</v>
+        <v>4.21</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>4.02</v>
+        <v>4.87</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         </is>
       </c>
       <c r="R191" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>1.98</v>
+        <v>1.47</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>24/09/2023 17:19</t>
+          <t>24/09/2023 17:29</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hacken/KxXJixXa/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G196" t="n">
+        <v>3</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
         <v>2</v>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
       <c r="J196" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>01/10/2023 14:55</t>
+          <t>01/10/2023 14:48</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>4.07</v>
+        <v>4.31</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>4.51</v>
+        <v>5.05</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T196" t="n">
-        <v>3.82</v>
+        <v>5.5</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>01/10/2023 14:48</t>
+          <t>01/10/2023 14:56</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
         </is>
       </c>
     </row>
@@ -18513,71 +18513,71 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
+          <t>01/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
           <t>01/10/2023 14:48</t>
         </is>
       </c>
-      <c r="N197" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P197" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q197" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:52</t>
-        </is>
-      </c>
-      <c r="R197" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T197" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U197" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:56</t>
-        </is>
-      </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
         </is>
       </c>
     </row>
@@ -18973,71 +18973,71 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>01/10/2023 14:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>07/10/2023 14:58</t>
+          <t>07/10/2023 14:43</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>01/10/2023 14:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.59</v>
+        <v>3.66</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
+          <t>07/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T202" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
           <t>07/10/2023 14:54</t>
         </is>
       </c>
-      <c r="R202" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="S202" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:12</t>
-        </is>
-      </c>
-      <c r="T202" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="U202" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:58</t>
-        </is>
-      </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-degerfors/69qPJfGh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-mjallby/YLEA0XFU/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>07/10/2023 14:43</t>
+          <t>07/10/2023 14:58</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.66</v>
+        <v>3.59</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>07/10/2023 14:43</t>
+          <t>07/10/2023 14:54</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>5.41</v>
+        <v>3.99</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>4.95</v>
+        <v>4.34</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>07/10/2023 14:54</t>
+          <t>07/10/2023 14:58</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-mjallby/YLEA0XFU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-degerfors/69qPJfGh/</t>
         </is>
       </c>
     </row>
@@ -19222,6 +19222,282 @@
       <c r="V204" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-sirius/xzuLKz1n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>3</v>
+      </c>
+      <c r="J206" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T206" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T207" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V207"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.63</v>
+        <v>3.01</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.72</v>
+        <v>2.99</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:58</t>
+          <t>16/04/2023 14:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.16</v>
+        <v>3.38</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.96</v>
+        <v>3.16</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:58</t>
+          <t>16/04/2023 14:47</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.52</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.04</v>
+        <v>2.65</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>16/04/2023 14:53</t>
+          <t>16/04/2023 14:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-varnamo/8rmkgLXN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hammarby/2VHles3B/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.01</v>
+        <v>1.63</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.99</v>
+        <v>1.72</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:59</t>
+          <t>16/04/2023 14:58</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.38</v>
+        <v>4.16</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.16</v>
+        <v>3.96</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:47</t>
+          <t>16/04/2023 14:58</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>5.52</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.65</v>
+        <v>5.04</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>16/04/2023 14:59</t>
+          <t>16/04/2023 14:53</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hammarby/2VHles3B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-varnamo/8rmkgLXN/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.81</v>
+        <v>1.78</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>4.34</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>5.07</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:43</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.78</v>
+        <v>3.81</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.71</v>
+        <v>3.27</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.34</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.07</v>
+        <v>2.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:43</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.95</v>
+        <v>2.94</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>2.98</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:46</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.96</v>
+        <v>3.04</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:39</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.79</v>
+        <v>2.56</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.09</v>
+        <v>2.79</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.45</v>
+        <v>2.01</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.38</v>
+        <v>3.99</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.74</v>
+        <v>5.37</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.7</v>
+        <v>4.21</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.98</v>
+        <v>1.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:46</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.25</v>
+        <v>3.78</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.04</v>
+        <v>3.96</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:39</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.56</v>
+        <v>3.79</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.79</v>
+        <v>4.09</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.01</v>
+        <v>1.45</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.99</v>
+        <v>4.38</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.41</v>
+        <v>4.74</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>5.37</v>
+        <v>6.74</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.21</v>
+        <v>7.7</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
         </is>
       </c>
     </row>
@@ -5173,30 +5173,30 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.32</v>
+        <v>2.74</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.36</v>
+        <v>2.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,40 +5204,40 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.69</v>
+        <v>3.33</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.77</v>
+        <v>3.66</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>08/05/2023 18:52</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.14</v>
+        <v>2.68</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>08/05/2023 18:59</t>
+          <t>08/05/2023 18:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>2.74</v>
+        <v>3.32</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.87</v>
+        <v>3.36</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.33</v>
+        <v>3.69</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.66</v>
+        <v>3.77</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>08/05/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>03/05/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R54" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T54" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:56</t>
-        </is>
-      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.61</v>
+        <v>4.33</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.08</v>
+        <v>4.38</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hacken/WtGSPDPa/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>15/05/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
         <v>1.97</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>14/05/2023 17:42</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1.75</v>
-      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.33</v>
+        <v>3.61</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.38</v>
+        <v>4.08</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hacken/WtGSPDPa/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.16</v>
+        <v>2.17</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.76</v>
+        <v>3.42</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.94</v>
+        <v>3.34</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/06/2023 14:55</t>
+          <t>11/06/2023 14:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>2</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
       <c r="J97" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.17</v>
+        <v>4.16</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.42</v>
+        <v>2.76</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.34</v>
+        <v>1.94</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>11/06/2023 14:59</t>
+          <t>11/06/2023 14:55</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.76</v>
+        <v>2.48</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>5.14</v>
+        <v>2.35</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>02/07/2023 14:59</t>
+          <t>02/07/2023 14:56</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.96</v>
+        <v>3.43</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.69</v>
+        <v>3.32</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>02/07/2023 14:59</t>
+          <t>02/07/2023 14:58</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.94</v>
+        <v>2.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.6</v>
+        <v>3.33</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>02/07/2023 14:55</t>
+          <t>02/07/2023 14:58</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hacken/p0QbqaMk/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-ifk-goteborg/IDO6swi2/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.48</v>
+        <v>3.76</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.35</v>
+        <v>5.14</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/07/2023 14:56</t>
+          <t>02/07/2023 14:59</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.43</v>
+        <v>3.96</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.32</v>
+        <v>4.69</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>02/07/2023 14:58</t>
+          <t>02/07/2023 14:59</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.91</v>
+        <v>1.94</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.33</v>
+        <v>1.6</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>02/07/2023 14:58</t>
+          <t>02/07/2023 14:55</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-ifk-goteborg/IDO6swi2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hacken/p0QbqaMk/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.87</v>
+        <v>1.56</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2.96</v>
+        <v>4.49</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>03/07/2023 18:57</t>
+          <t>03/07/2023 18:59</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.89</v>
+        <v>4.82</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.94</v>
+        <v>5.93</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.56</v>
+        <v>2.87</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.16</v>
+        <v>3.04</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,32 +10272,32 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.49</v>
+        <v>2.96</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
+          <t>03/07/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>17/06/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
           <t>03/07/2023 18:59</t>
         </is>
       </c>
-      <c r="R107" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>17/06/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T107" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>03/07/2023 18:59</t>
-        </is>
-      </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>1.28</v>
+        <v>2.45</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.34</v>
+        <v>2.74</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,40 +11184,40 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>6.13</v>
+        <v>3.54</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>6</v>
+        <v>3.59</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
+          <t>15/07/2023 17:23</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>09/07/2023 15:11</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
           <t>15/07/2023 17:29</t>
         </is>
       </c>
-      <c r="R117" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T117" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>15/07/2023 17:29</t>
-        </is>
-      </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
         </is>
       </c>
     </row>
@@ -11245,30 +11245,30 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.74</v>
+        <v>1.34</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,31 +11276,31 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.54</v>
+        <v>6.13</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.59</v>
+        <v>6</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/07/2023 17:23</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.94</v>
+        <v>9.24</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.61</v>
+        <v>8.41</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
         </is>
       </c>
     </row>
@@ -11337,46 +11337,46 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>16/07/2023 14:42</t>
+          <t>16/07/2023 14:40</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.96</v>
+        <v>3.64</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.44</v>
+        <v>4.08</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>6.61</v>
+        <v>4.39</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>8.41</v>
+        <v>5.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
         </is>
       </c>
     </row>
@@ -11429,46 +11429,46 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16/07/2023 14:40</t>
+          <t>16/07/2023 14:42</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.64</v>
+        <v>4.96</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.08</v>
+        <v>5.44</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.39</v>
+        <v>6.61</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.17</v>
+        <v>8.41</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
         </is>
       </c>
     </row>
@@ -12257,46 +12257,46 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.48</v>
+        <v>2.19</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 15:12</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>23/07/2023 17:22</t>
+          <t>23/07/2023 17:27</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4.61</v>
+        <v>3.42</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 15:12</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.57</v>
+        <v>3.42</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -12304,15 +12304,15 @@
         </is>
       </c>
       <c r="R129" t="n">
-        <v>6.6</v>
+        <v>3.52</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 15:12</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>4.59</v>
+        <v>3.99</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varberg/zmlq83Gm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-halmstad/CfWGE5wK/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>2.19</v>
+        <v>1.48</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>16/07/2023 15:12</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
+          <t>23/07/2023 17:22</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>17/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
           <t>23/07/2023 17:27</t>
         </is>
       </c>
-      <c r="N130" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>16/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P130" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q130" t="inlineStr">
+      <c r="R130" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>17/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U130" t="inlineStr">
         <is>
           <t>23/07/2023 17:27</t>
         </is>
       </c>
-      <c r="R130" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>16/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T130" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>23/07/2023 17:27</t>
-        </is>
-      </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-halmstad/CfWGE5wK/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varberg/zmlq83Gm/</t>
         </is>
       </c>
     </row>
@@ -12809,30 +12809,30 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>3.51</v>
+        <v>1.65</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.56</v>
+        <v>2.01</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -12840,40 +12840,40 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
+          <t>30/07/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>23/07/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
           <t>30/07/2023 14:58</t>
         </is>
       </c>
-      <c r="R135" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>24/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T135" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:59</t>
-        </is>
-      </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
         </is>
       </c>
     </row>
@@ -12901,30 +12901,30 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.65</v>
+        <v>3.51</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.01</v>
+        <v>3.56</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -12932,40 +12932,40 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
+          <t>30/07/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>24/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
           <t>30/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R136" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>23/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,14 +13553,14 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1.32</v>
+        <v>2.04</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.32</v>
+        <v>2.3</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:44</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>5.72</v>
+        <v>3.56</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>5.71</v>
+        <v>3.37</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:58</t>
+          <t>07/08/2023 18:37</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>9.93</v>
+        <v>3.73</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>9.779999999999999</v>
+        <v>3.37</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:58</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-halmstad/IV5ZIKU5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>2.04</v>
+        <v>1.32</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.3</v>
+        <v>1.32</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:44</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.56</v>
+        <v>5.72</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.37</v>
+        <v>5.71</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:37</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.73</v>
+        <v>9.93</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>3.37</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-halmstad/IV5ZIKU5/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.22</v>
+        <v>3.11</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.32</v>
+        <v>3.26</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:27</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>7.55</v>
+        <v>3.72</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>6.37</v>
+        <v>3.48</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:29</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>12.03</v>
+        <v>2.23</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>8.359999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:28</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,63 +14197,63 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150" t="n">
-        <v>3.11</v>
+        <v>2.49</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.26</v>
+        <v>2.54</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:27</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:29</t>
+          <t>13/08/2023 16:37</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.23</v>
+        <v>2.92</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.3</v>
+        <v>2.97</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:28</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>2.49</v>
+        <v>1.22</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.54</v>
+        <v>1.32</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.4</v>
+        <v>7.55</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.33</v>
+        <v>6.37</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>13/08/2023 16:37</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.92</v>
+        <v>12.03</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2.97</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
         </is>
       </c>
     </row>
@@ -14373,71 +14373,71 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Degerfors</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
       <c r="J152" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>07/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>14/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>07/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>14/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>07/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
         <v>1.83</v>
       </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>05/08/2023 21:08</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>14/08/2023 18:58</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>05/08/2023 21:08</t>
-        </is>
-      </c>
-      <c r="P152" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>14/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R152" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>05/08/2023 21:08</t>
-        </is>
-      </c>
-      <c r="T152" t="n">
-        <v>4.22</v>
-      </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>14/08/2023 18:58</t>
+          <t>14/08/2023 18:59</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-degerfors/W0Uzygji/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-malmo-ff/IctgC9Dj/</t>
         </is>
       </c>
     </row>
@@ -14465,71 +14465,71 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>1</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
       <c r="J153" t="n">
-        <v>4.27</v>
+        <v>1.83</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>05/08/2023 21:08</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>4.71</v>
+        <v>1.86</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>14/08/2023 18:59</t>
+          <t>14/08/2023 18:58</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.69</v>
+        <v>3.86</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>05/08/2023 21:08</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>14/08/2023 18:59</t>
+          <t>14/08/2023 18:52</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>1.89</v>
+        <v>4.32</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>05/08/2023 21:08</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.83</v>
+        <v>4.22</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>14/08/2023 18:59</t>
+          <t>14/08/2023 18:58</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-malmo-ff/IctgC9Dj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-degerfors/W0Uzygji/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:55</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.93</v>
+        <v>6</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.23</v>
+        <v>5.16</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.66</v>
+        <v>6.67</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>6.07</v>
+        <v>5.49</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1.37</v>
+        <v>1.77</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:55</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>6</v>
+        <v>3.93</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>5.16</v>
+        <v>4.23</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>6.67</v>
+        <v>4.66</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>5.49</v>
+        <v>6.07</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.41</v>
+        <v>3.06</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>5.11</v>
+        <v>3.42</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>5.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>7.64</v>
+        <v>2.48</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>7.85</v>
+        <v>2.44</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:29</t>
+          <t>03/09/2023 17:26</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-djurgarden/OUaAyQt2/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J176" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.06</v>
+        <v>3.86</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.43</v>
+        <v>3.85</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:23</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:26</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-djurgarden/OUaAyQt2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.86</v>
+        <v>1.41</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.47</v>
+        <v>5.11</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:23</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.58</v>
+        <v>7.64</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.96</v>
+        <v>7.85</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>4.39</v>
+        <v>3.9</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>5.54</v>
+        <v>3.8</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:57</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>5.63</v>
+        <v>3.84</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>7.87</v>
+        <v>4.56</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.9</v>
+        <v>4.39</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.8</v>
+        <v>5.54</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:57</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.84</v>
+        <v>5.63</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>4.56</v>
+        <v>7.87</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
         </is>
       </c>
     </row>
@@ -17685,46 +17685,46 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.54</v>
+        <v>2.97</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.39</v>
+        <v>3.36</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -17732,15 +17732,15 @@
         </is>
       </c>
       <c r="R188" t="n">
-        <v>2.88</v>
+        <v>3.47</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-djurgarden/OAwBgb2m/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-ifk-goteborg/EaWNjdn6/</t>
         </is>
       </c>
     </row>
@@ -17777,71 +17777,71 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G189" t="n">
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
       <c r="J189" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.97</v>
+        <v>2.54</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
+          <t>24/09/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
           <t>24/09/2023 14:59</t>
         </is>
       </c>
-      <c r="N189" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>18/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P189" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q189" t="inlineStr">
+      <c r="R189" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U189" t="inlineStr">
         <is>
           <t>24/09/2023 14:59</t>
         </is>
       </c>
-      <c r="R189" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>18/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T189" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U189" t="inlineStr">
-        <is>
-          <t>24/09/2023 14:59</t>
-        </is>
-      </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-ifk-goteborg/EaWNjdn6/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-djurgarden/OAwBgb2m/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
         <v>1</v>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Hacken</t>
-        </is>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
       <c r="J190" t="n">
-        <v>3.51</v>
+        <v>5.32</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>3.63</v>
+        <v>6.74</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>24/09/2023 17:19</t>
+          <t>24/09/2023 17:29</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.8</v>
+        <v>4.21</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>4.02</v>
+        <v>4.87</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         </is>
       </c>
       <c r="R190" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>1.98</v>
+        <v>1.47</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>24/09/2023 17:19</t>
+          <t>24/09/2023 17:29</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hacken/KxXJixXa/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Hammarby</t>
-        </is>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
       <c r="J191" t="n">
-        <v>5.32</v>
+        <v>3.51</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,48 +17984,48 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>6.74</v>
+        <v>3.63</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
+          <t>24/09/2023 17:19</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
           <t>24/09/2023 17:29</t>
         </is>
       </c>
-      <c r="N191" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="O191" t="inlineStr">
+      <c r="R191" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S191" t="inlineStr">
         <is>
           <t>17/09/2023 16:43</t>
         </is>
       </c>
-      <c r="P191" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="Q191" t="inlineStr">
-        <is>
-          <t>24/09/2023 17:29</t>
-        </is>
-      </c>
-      <c r="R191" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:43</t>
-        </is>
-      </c>
       <c r="T191" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>24/09/2023 17:29</t>
+          <t>24/09/2023 17:19</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hacken/KxXJixXa/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J205" t="n">
-        <v>4.61</v>
+        <v>3.28</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.84</v>
+        <v>3.99</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Elfsborg</t>
-        </is>
-      </c>
-      <c r="I206" t="n">
-        <v>3</v>
-      </c>
       <c r="J206" t="n">
-        <v>3.28</v>
+        <v>4.61</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.75</v>
+        <v>3.98</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.99</v>
+        <v>3.84</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>2.14</v>
+        <v>1.74</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
         </is>
       </c>
     </row>
@@ -19498,6 +19498,190 @@
       <c r="V207" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45207.72916666666</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T208" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-hacken/bqtHLGot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45207.72916666666</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Varberg</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T209" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-djurgarden/KWkuGCFH/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V209"/>
+  <dimension ref="A1:V210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.21</v>
+        <v>5.01</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.59</v>
+        <v>7.44</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.61</v>
+        <v>4.15</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.53</v>
+        <v>4.79</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.22</v>
+        <v>1.66</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.83</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>08/04/2023 14:55</t>
+          <t>08/04/2023 14:56</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
       <c r="J11" t="n">
-        <v>5.01</v>
+        <v>2.21</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7.44</v>
+        <v>2.59</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.15</v>
+        <v>3.61</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.79</v>
+        <v>3.53</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>3.22</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.47</v>
+        <v>2.83</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>08/04/2023 14:56</t>
+          <t>08/04/2023 14:55</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.18</v>
+        <v>1.58</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.51</v>
+        <v>1.99</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.59</v>
+        <v>4.46</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.3</v>
+        <v>5.36</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.21</v>
+        <v>4.04</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,22 +3617,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.58</v>
+        <v>3.18</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.99</v>
+        <v>3.51</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,15 +3640,15 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.46</v>
+        <v>3.59</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.36</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.04</v>
+        <v>2.21</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
         </is>
       </c>
     </row>
@@ -3701,30 +3701,30 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,40 +3732,40 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.08</v>
+        <v>5.97</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:22</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.73</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.6</v>
+        <v>10.38</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:23</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
         </is>
       </c>
     </row>
@@ -3793,30 +3793,30 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,40 +3824,40 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>5.97</v>
+        <v>4.08</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:22</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>8.300000000000001</v>
+        <v>4.73</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>10.38</v>
+        <v>3.6</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:23</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.78</v>
+        <v>3.81</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.71</v>
+        <v>3.27</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.34</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>5.07</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:43</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.81</v>
+        <v>1.78</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>4.34</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.18</v>
+        <v>5.07</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:43</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5200,44 +5200,44 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
+          <t>08/05/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N52" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O52" t="inlineStr">
+      <c r="R52" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S52" t="inlineStr">
         <is>
           <t>04/05/2023 19:12</t>
         </is>
       </c>
-      <c r="P52" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q52" t="inlineStr">
+      <c r="T52" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U52" t="inlineStr">
         <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R52" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:56</t>
-        </is>
-      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5292,11 +5292,11 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>08/05/2023 18:54</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.47</v>
+        <v>3.66</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>08/05/2023 18:59</t>
+          <t>08/05/2023 18:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.92</v>
+        <v>4.27</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.61</v>
+        <v>4.02</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.55</v>
+        <v>6.38</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.08</v>
+        <v>6.31</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.27</v>
+        <v>3.92</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>6.38</v>
+        <v>4.55</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.31</v>
+        <v>4.08</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.39</v>
+        <v>3.69</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:25</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.47</v>
+        <v>3.91</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.5</v>
+        <v>4.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.69</v>
+        <v>3.39</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:25</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.91</v>
+        <v>2.47</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.06</v>
+        <v>2.5</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
         </is>
       </c>
     </row>
@@ -8485,46 +8485,46 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/06/2023 17:28</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -8532,24 +8532,24 @@
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.28</v>
+        <v>3.23</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.09</v>
+        <v>4.46</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 17:27</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
+          <t>04/06/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>29/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
           <t>04/06/2023 17:29</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>28/05/2023 17:42</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>04/06/2023 17:29</t>
-        </is>
-      </c>
       <c r="R89" t="n">
-        <v>3.23</v>
+        <v>4.28</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>04/06/2023 17:29</t>
+          <t>04/06/2023 17:27</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>5.01</v>
+        <v>4.3</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>7.44</v>
+        <v>5.96</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.63</v>
+        <v>6.4</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.3</v>
+        <v>5.01</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.33</v>
+        <v>5.3</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.96</v>
+        <v>7.44</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>6.4</v>
+        <v>7.63</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.94</v>
+        <v>2.29</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.26</v>
+        <v>2.71</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9632,11 +9632,11 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:53</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.29</v>
+        <v>2.94</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.71</v>
+        <v>3.26</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:53</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.06</v>
+        <v>2.52</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.48</v>
+        <v>3.76</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.35</v>
+        <v>5.14</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>02/07/2023 14:56</t>
+          <t>02/07/2023 14:59</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.43</v>
+        <v>3.96</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.32</v>
+        <v>4.69</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>02/07/2023 14:58</t>
+          <t>02/07/2023 14:59</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.91</v>
+        <v>1.94</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.33</v>
+        <v>1.6</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>02/07/2023 14:58</t>
+          <t>02/07/2023 14:55</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-ifk-goteborg/IDO6swi2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hacken/p0QbqaMk/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.76</v>
+        <v>2.48</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>5.14</v>
+        <v>2.35</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/07/2023 14:59</t>
+          <t>02/07/2023 14:56</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.96</v>
+        <v>3.43</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.69</v>
+        <v>3.32</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>02/07/2023 14:59</t>
+          <t>02/07/2023 14:58</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>1.94</v>
+        <v>2.91</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>1.6</v>
+        <v>3.33</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>02/07/2023 14:55</t>
+          <t>02/07/2023 14:58</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hacken/p0QbqaMk/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-ifk-goteborg/IDO6swi2/</t>
         </is>
       </c>
     </row>
@@ -12257,71 +12257,71 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.19</v>
+        <v>1.48</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>16/07/2023 15:12</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
+          <t>23/07/2023 17:22</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>17/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
           <t>23/07/2023 17:27</t>
         </is>
       </c>
-      <c r="N129" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>16/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P129" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q129" t="inlineStr">
+      <c r="R129" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>17/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U129" t="inlineStr">
         <is>
           <t>23/07/2023 17:27</t>
         </is>
       </c>
-      <c r="R129" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>16/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T129" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="U129" t="inlineStr">
-        <is>
-          <t>23/07/2023 17:27</t>
-        </is>
-      </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-halmstad/CfWGE5wK/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varberg/zmlq83Gm/</t>
         </is>
       </c>
     </row>
@@ -12349,46 +12349,46 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.48</v>
+        <v>2.19</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 15:12</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>23/07/2023 17:22</t>
+          <t>23/07/2023 17:27</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4.61</v>
+        <v>3.42</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 15:12</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.57</v>
+        <v>3.42</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -12396,15 +12396,15 @@
         </is>
       </c>
       <c r="R130" t="n">
-        <v>6.6</v>
+        <v>3.52</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 15:12</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>4.59</v>
+        <v>3.99</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varberg/zmlq83Gm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-halmstad/CfWGE5wK/</t>
         </is>
       </c>
     </row>
@@ -12809,30 +12809,30 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.65</v>
+        <v>3.51</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.01</v>
+        <v>3.56</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -12840,40 +12840,40 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
+          <t>30/07/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>24/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
           <t>30/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R135" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>23/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T135" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
         </is>
       </c>
     </row>
@@ -12901,30 +12901,30 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>3.51</v>
+        <v>1.65</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.56</v>
+        <v>2.01</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -12932,40 +12932,40 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
+          <t>30/07/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>23/07/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
           <t>30/07/2023 14:58</t>
         </is>
       </c>
-      <c r="R136" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>24/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:59</t>
-        </is>
-      </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>3</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Halmstad</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
       <c r="J144" t="n">
-        <v>1.32</v>
+        <v>2.91</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.32</v>
+        <v>3.06</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:44</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>5.72</v>
+        <v>3.09</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,32 +13676,32 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>5.71</v>
+        <v>3.07</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
+          <t>07/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>31/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
           <t>07/08/2023 18:58</t>
         </is>
       </c>
-      <c r="R144" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>31/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T144" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="U144" t="inlineStr">
-        <is>
-          <t>07/08/2023 18:58</t>
-        </is>
-      </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-halmstad/IV5ZIKU5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G145" t="n">
+        <v>3</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Mjallby</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>3</v>
-      </c>
       <c r="J145" t="n">
-        <v>2.91</v>
+        <v>1.32</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.06</v>
+        <v>1.32</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:44</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.09</v>
+        <v>5.72</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.07</v>
+        <v>5.71</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>2.74</v>
+        <v>9.93</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.66</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-halmstad/IV5ZIKU5/</t>
         </is>
       </c>
     </row>
@@ -14373,71 +14373,71 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
         <v>1</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
       <c r="J152" t="n">
-        <v>4.27</v>
+        <v>1.83</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>05/08/2023 21:08</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>4.71</v>
+        <v>1.86</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>14/08/2023 18:59</t>
+          <t>14/08/2023 18:58</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.69</v>
+        <v>3.86</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>05/08/2023 21:08</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>14/08/2023 18:59</t>
+          <t>14/08/2023 18:52</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>1.89</v>
+        <v>4.32</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>05/08/2023 21:08</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>1.83</v>
+        <v>4.22</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>14/08/2023 18:59</t>
+          <t>14/08/2023 18:58</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-malmo-ff/IctgC9Dj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-degerfors/W0Uzygji/</t>
         </is>
       </c>
     </row>
@@ -14465,71 +14465,71 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Degerfors</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
       <c r="J153" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>07/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>14/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>07/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>14/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>07/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
         <v>1.83</v>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>05/08/2023 21:08</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>14/08/2023 18:58</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>05/08/2023 21:08</t>
-        </is>
-      </c>
-      <c r="P153" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>14/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R153" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>05/08/2023 21:08</t>
-        </is>
-      </c>
-      <c r="T153" t="n">
-        <v>4.22</v>
-      </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>14/08/2023 18:58</t>
+          <t>14/08/2023 18:59</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-degerfors/W0Uzygji/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-malmo-ff/IctgC9Dj/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.77</v>
+        <v>1.38</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.81</v>
+        <v>1.49</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.27</v>
+        <v>5.17</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.3</v>
+        <v>4.51</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:08</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>2.75</v>
+        <v>7.8</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2.71</v>
+        <v>7.11</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.38</v>
+        <v>2.77</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.49</v>
+        <v>2.81</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>5.17</v>
+        <v>3.27</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:08</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>7.8</v>
+        <v>2.75</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>7.11</v>
+        <v>2.71</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.06</v>
+        <v>1.41</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.42</v>
+        <v>5.11</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.43</v>
+        <v>5.09</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.48</v>
+        <v>7.64</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.44</v>
+        <v>7.85</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:26</t>
+          <t>03/09/2023 17:29</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-djurgarden/OUaAyQt2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.86</v>
+        <v>3.06</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.85</v>
+        <v>3.43</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:23</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:26</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-djurgarden/OUaAyQt2/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J177" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.41</v>
+        <v>3.86</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>5.11</v>
+        <v>3.47</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:23</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>7.64</v>
+        <v>2.58</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>7.85</v>
+        <v>1.96</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:29</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.9</v>
+        <v>4.39</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.8</v>
+        <v>5.54</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:57</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.84</v>
+        <v>5.63</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.56</v>
+        <v>7.87</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>4.39</v>
+        <v>3.9</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>5.54</v>
+        <v>3.8</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:57</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>5.63</v>
+        <v>3.84</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>7.87</v>
+        <v>4.56</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
         </is>
       </c>
     </row>
@@ -17685,71 +17685,71 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
       <c r="J188" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.97</v>
+        <v>2.54</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
+          <t>24/09/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
           <t>24/09/2023 14:59</t>
         </is>
       </c>
-      <c r="N188" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>18/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P188" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q188" t="inlineStr">
+      <c r="R188" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U188" t="inlineStr">
         <is>
           <t>24/09/2023 14:59</t>
         </is>
       </c>
-      <c r="R188" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>18/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T188" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U188" t="inlineStr">
-        <is>
-          <t>24/09/2023 14:59</t>
-        </is>
-      </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-ifk-goteborg/EaWNjdn6/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-djurgarden/OAwBgb2m/</t>
         </is>
       </c>
     </row>
@@ -17777,46 +17777,46 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.54</v>
+        <v>2.97</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.39</v>
+        <v>3.36</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -17824,15 +17824,15 @@
         </is>
       </c>
       <c r="R189" t="n">
-        <v>2.88</v>
+        <v>3.47</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-djurgarden/OAwBgb2m/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-ifk-goteborg/EaWNjdn6/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
+          <t>01/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
           <t>01/10/2023 14:48</t>
         </is>
       </c>
-      <c r="N196" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P196" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q196" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:52</t>
-        </is>
-      </c>
-      <c r="R196" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T196" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U196" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:56</t>
-        </is>
-      </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
         </is>
       </c>
     </row>
@@ -18513,71 +18513,71 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G197" t="n">
+        <v>3</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
         <v>2</v>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
       <c r="J197" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>01/10/2023 14:55</t>
+          <t>01/10/2023 14:48</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4.07</v>
+        <v>4.31</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>4.51</v>
+        <v>5.05</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T197" t="n">
-        <v>3.82</v>
+        <v>5.5</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>01/10/2023 14:48</t>
+          <t>01/10/2023 14:56</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
         </is>
       </c>
     </row>
@@ -19525,62 +19525,62 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>2.39</v>
+        <v>5.4</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>01/10/2023 16:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.62</v>
+        <v>6.87</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>08/10/2023 17:28</t>
+          <t>08/10/2023 17:26</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.75</v>
+        <v>4.36</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>01/10/2023 16:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.74</v>
+        <v>4.51</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>08/10/2023 17:28</t>
+          <t>08/10/2023 17:26</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>2.89</v>
+        <v>1.59</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>01/10/2023 16:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>2.64</v>
+        <v>1.51</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-hacken/bqtHLGot/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-djurgarden/KWkuGCFH/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,163 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I209" t="n">
+        <v>2</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T209" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-hacken/bqtHLGot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
         <v>1</v>
       </c>
-      <c r="J209" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>02/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:26</t>
-        </is>
-      </c>
-      <c r="N209" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>02/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P209" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="Q209" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:26</t>
-        </is>
-      </c>
-      <c r="R209" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S209" t="inlineStr">
-        <is>
-          <t>02/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T209" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U209" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:26</t>
-        </is>
-      </c>
-      <c r="V209" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-djurgarden/KWkuGCFH/</t>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>3</v>
+      </c>
+      <c r="J210" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>3</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:23</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T210" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-kalmar/EgBEUBUA/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V210"/>
+  <dimension ref="A1:V211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>5.4</v>
+        <v>2.39</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:43</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>6.87</v>
+        <v>2.62</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
+          <t>08/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T208" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
           <t>08/10/2023 17:26</t>
         </is>
       </c>
-      <c r="N208" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>02/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P208" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="Q208" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:26</t>
-        </is>
-      </c>
-      <c r="R208" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S208" t="inlineStr">
-        <is>
-          <t>02/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T208" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U208" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:26</t>
-        </is>
-      </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-djurgarden/KWkuGCFH/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-hacken/bqtHLGot/</t>
         </is>
       </c>
     </row>
@@ -19617,62 +19617,62 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>2.39</v>
+        <v>5.4</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>01/10/2023 16:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.62</v>
+        <v>6.87</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>08/10/2023 17:28</t>
+          <t>08/10/2023 17:26</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.75</v>
+        <v>4.36</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>01/10/2023 16:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>3.74</v>
+        <v>4.51</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>08/10/2023 17:28</t>
+          <t>08/10/2023 17:26</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>2.89</v>
+        <v>1.59</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>01/10/2023 16:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>2.64</v>
+        <v>1.51</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-hacken/bqtHLGot/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-djurgarden/KWkuGCFH/</t>
         </is>
       </c>
     </row>
@@ -19774,6 +19774,98 @@
       <c r="V210" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-kalmar/EgBEUBUA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45220.72916666666</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sirius</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>3</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T211" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-brommapojkarna/SxD6WXab/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V211"/>
+  <dimension ref="A1:V217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
       <c r="J10" t="n">
-        <v>5.01</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7.44</v>
+        <v>2.59</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.15</v>
+        <v>3.61</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.79</v>
+        <v>3.53</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>3.22</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>2.83</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>08/04/2023 14:56</t>
+          <t>08/04/2023 14:55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.21</v>
+        <v>5.01</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.59</v>
+        <v>7.44</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.61</v>
+        <v>4.15</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.53</v>
+        <v>4.79</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.22</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.83</v>
+        <v>1.47</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>08/04/2023 14:55</t>
+          <t>08/04/2023 14:56</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.71</v>
+        <v>3.19</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>16/04/2023 17:43</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.16</v>
+        <v>3.16</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>24/04/2023 18:59</t>
+          <t>24/04/2023 18:55</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.82</v>
+        <v>3.56</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>16/04/2023 17:43</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>24/04/2023 18:58</t>
+          <t>24/04/2023 18:52</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.96</v>
+        <v>2.29</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>16/04/2023 17:43</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.03</v>
+        <v>2.43</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>24/04/2023 18:58</t>
+          <t>24/04/2023 18:55</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-aik/xMucoRjp/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-mjallby/GCv1po6j/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.19</v>
+        <v>3.71</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>16/04/2023 17:43</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.16</v>
+        <v>4.16</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>24/04/2023 18:55</t>
+          <t>24/04/2023 18:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.56</v>
+        <v>3.82</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>16/04/2023 17:43</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>24/04/2023 18:52</t>
+          <t>24/04/2023 18:58</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.29</v>
+        <v>1.96</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>16/04/2023 17:43</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.43</v>
+        <v>2.03</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>24/04/2023 18:55</t>
+          <t>24/04/2023 18:58</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-mjallby/GCv1po6j/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-aik/xMucoRjp/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.58</v>
+        <v>3.18</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.99</v>
+        <v>3.51</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.46</v>
+        <v>3.59</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.36</v>
+        <v>2.3</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.04</v>
+        <v>2.21</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,22 +3617,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.18</v>
+        <v>1.58</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.51</v>
+        <v>1.99</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,15 +3640,15 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.59</v>
+        <v>4.46</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>5.36</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.21</v>
+        <v>4.04</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.81</v>
+        <v>1.78</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>4.34</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>5.07</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:43</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.78</v>
+        <v>3.81</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.71</v>
+        <v>3.27</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.34</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.07</v>
+        <v>2.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:43</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
         </is>
       </c>
     </row>
@@ -4621,46 +4621,46 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>6</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Brommapojkarna</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.51</v>
+        <v>3.96</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,15 +4668,15 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.96</v>
+        <v>3.69</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.15</v>
+        <v>4.56</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>6</v>
-      </c>
       <c r="J47" t="n">
-        <v>4.57</v>
+        <v>2.94</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.82</v>
+        <v>3.61</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.47</v>
+        <v>3.42</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:57</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.47</v>
+        <v>2.37</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>2.94</v>
+        <v>4.57</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.61</v>
+        <v>3.82</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.42</v>
+        <v>4.47</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:57</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.37</v>
+        <v>1.78</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.37</v>
+        <v>1.47</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
         <v>1.99</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1.79</v>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>04/05/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>04/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>3.96</v>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U49" t="inlineStr">
         <is>
           <t>04/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>04/05/2023 18:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>2.77</v>
+        <v>3.32</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.87</v>
+        <v>3.36</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>08/05/2023 18:54</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.47</v>
+        <v>3.69</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>04/05/2023 19:12</t>
+          <t>03/05/2023 19:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.47</v>
+        <v>3.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
+          <t>08/05/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>03/05/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R52" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:59</t>
-        </is>
-      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5292,44 +5292,44 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>08/05/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="R53" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S53" t="inlineStr">
         <is>
           <t>04/05/2023 19:12</t>
         </is>
       </c>
-      <c r="P53" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q53" t="inlineStr">
+      <c r="T53" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U53" t="inlineStr">
         <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:56</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.32</v>
+        <v>2.74</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.36</v>
+        <v>2.87</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.69</v>
+        <v>3.33</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.77</v>
+        <v>3.66</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>08/05/2023 18:52</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.14</v>
+        <v>2.68</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/05/2023 19:13</t>
+          <t>04/05/2023 19:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>08/05/2023 18:59</t>
+          <t>08/05/2023 18:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-elfsborg/WMJBX4R8/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.38</v>
+        <v>1.39</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.48</v>
+        <v>1.51</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:53</t>
+          <t>14/05/2023 14:33</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.69</v>
+        <v>4.93</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.4</v>
+        <v>4.58</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:53</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.88</v>
+        <v>8.19</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.02</v>
+        <v>6.34</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:47</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-djurgarden/vmikCfe0/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-varnamo/IwjgBEA6/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>1.39</v>
+        <v>2.38</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.51</v>
+        <v>2.48</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:33</t>
+          <t>14/05/2023 14:53</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.93</v>
+        <v>3.69</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.58</v>
+        <v>3.4</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:53</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>8.19</v>
+        <v>2.88</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>6.34</v>
+        <v>3.02</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:47</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-varnamo/IwjgBEA6/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-djurgarden/vmikCfe0/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Brommapojkarna</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.6</v>
+        <v>5.22</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>09/05/2023 16:42</t>
+          <t>09/05/2023 16:41</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.74</v>
+        <v>7.71</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>14/05/2023 17:22</t>
+          <t>14/05/2023 17:29</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.24</v>
+        <v>4.34</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>09/05/2023 16:42</t>
+          <t>09/05/2023 16:41</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.73</v>
+        <v>4.58</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>14/05/2023 17:22</t>
+          <t>14/05/2023 17:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>5.77</v>
+        <v>1.64</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>09/05/2023 16:42</t>
+          <t>09/05/2023 16:41</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.38</v>
+        <v>1.46</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>14/05/2023 17:22</t>
+          <t>14/05/2023 17:29</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-brommapojkarna/S8XqYyIJ/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-malmo-ff/Q3g19huJ/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>5.22</v>
+        <v>1.6</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>09/05/2023 16:41</t>
+          <t>09/05/2023 16:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>7.71</v>
+        <v>1.74</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>14/05/2023 17:29</t>
+          <t>14/05/2023 17:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>09/05/2023 16:41</t>
+          <t>09/05/2023 16:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.58</v>
+        <v>3.73</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>14/05/2023 17:29</t>
+          <t>14/05/2023 17:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.64</v>
+        <v>5.77</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>09/05/2023 16:41</t>
+          <t>09/05/2023 16:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.46</v>
+        <v>5.38</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>14/05/2023 17:29</t>
+          <t>14/05/2023 17:22</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-malmo-ff/Q3g19huJ/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-brommapojkarna/S8XqYyIJ/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.69</v>
+        <v>3.39</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:25</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.91</v>
+        <v>2.47</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.06</v>
+        <v>2.5</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.39</v>
+        <v>3.69</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:25</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.47</v>
+        <v>3.91</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.5</v>
+        <v>4.06</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>22/05/2023 19:12</t>
+          <t>24/05/2023 19:13</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/05/2023 13:18</t>
+          <t>28/05/2023 14:34</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.49</v>
+        <v>3.62</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>22/05/2023 19:12</t>
+          <t>24/05/2023 19:13</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.33</v>
+        <v>3.57</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/05/2023 14:08</t>
+          <t>28/05/2023 14:34</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.82</v>
+        <v>4.21</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>22/05/2023 19:12</t>
+          <t>24/05/2023 19:13</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/05/2023 13:18</t>
+          <t>28/05/2023 14:34</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-norrkoping/pSl9xi95/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-aik/GnchtZ9t/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
       <c r="J79" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>24/05/2023 19:13</t>
+          <t>22/05/2023 19:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.88</v>
+        <v>2.27</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 14:34</t>
+          <t>28/05/2023 13:18</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.62</v>
+        <v>3.49</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>24/05/2023 19:13</t>
+          <t>22/05/2023 19:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.57</v>
+        <v>3.33</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 14:34</t>
+          <t>28/05/2023 14:08</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>4.21</v>
+        <v>3.82</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>24/05/2023 19:13</t>
+          <t>22/05/2023 19:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 14:34</t>
+          <t>28/05/2023 13:18</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-aik/GnchtZ9t/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-norrkoping/pSl9xi95/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>2</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.17</v>
+        <v>4.16</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.42</v>
+        <v>2.76</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.34</v>
+        <v>1.94</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/06/2023 14:59</t>
+          <t>11/06/2023 14:55</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.16</v>
+        <v>2.17</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.76</v>
+        <v>3.42</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.94</v>
+        <v>3.34</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>11/06/2023 14:55</t>
+          <t>11/06/2023 14:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.3</v>
+        <v>5.01</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.33</v>
+        <v>5.3</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.96</v>
+        <v>7.44</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>6.4</v>
+        <v>7.63</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.01</v>
+        <v>4.3</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>7.44</v>
+        <v>5.96</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>7.63</v>
+        <v>6.4</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.56</v>
+        <v>2.87</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>4.16</v>
+        <v>3.04</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,32 +10180,32 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.49</v>
+        <v>2.96</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
+          <t>03/07/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>17/06/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
           <t>03/07/2023 18:59</t>
         </is>
       </c>
-      <c r="R106" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>17/06/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T106" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>03/07/2023 18:59</t>
-        </is>
-      </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.87</v>
+        <v>1.56</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.96</v>
+        <v>4.49</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>03/07/2023 18:57</t>
+          <t>03/07/2023 18:59</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.89</v>
+        <v>4.82</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.94</v>
+        <v>5.93</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-kalmar/fV7k6MT2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-hammarby/vNP2rJyd/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>2.98</v>
+        <v>1.29</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,48 +10624,48 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.92</v>
+        <v>1.35</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>09/07/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
           <t>09/07/2023 14:59</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O111" t="inlineStr">
+      <c r="R111" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="S111" t="inlineStr">
         <is>
           <t>03/07/2023 19:11</t>
         </is>
       </c>
-      <c r="P111" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>09/07/2023 14:54</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
       <c r="T111" t="n">
-        <v>2.46</v>
+        <v>9.82</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/07/2023 14:59</t>
+          <t>09/07/2023 14:58</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-hammarby/Czptdx6e/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-mjallby/QJoYcbyq/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>1.29</v>
+        <v>2.98</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.35</v>
+        <v>2.92</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>09/07/2023 14:55</t>
+          <t>09/07/2023 14:59</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>5.75</v>
+        <v>3.54</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,32 +10732,32 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>5.33</v>
+        <v>3.59</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
+          <t>09/07/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
           <t>09/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R112" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
-      <c r="T112" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>09/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-mjallby/QJoYcbyq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-hammarby/Czptdx6e/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.74</v>
+        <v>1.34</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,31 +11184,31 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.54</v>
+        <v>6.13</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.59</v>
+        <v>6</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>15/07/2023 17:23</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.94</v>
+        <v>9.24</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.61</v>
+        <v>8.41</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
         </is>
       </c>
     </row>
@@ -11245,30 +11245,30 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>1.28</v>
+        <v>2.45</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.34</v>
+        <v>2.74</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,40 +11276,40 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>6.13</v>
+        <v>3.54</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>6</v>
+        <v>3.59</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
+          <t>15/07/2023 17:23</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>09/07/2023 15:11</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
           <t>15/07/2023 17:29</t>
         </is>
       </c>
-      <c r="R118" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T118" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>15/07/2023 17:29</t>
-        </is>
-      </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>2.72</v>
+        <v>1.25</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>3.51</v>
+        <v>1.33</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 18:57</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.23</v>
+        <v>6.32</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.59</v>
+        <v>5.65</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.77</v>
+        <v>10.59</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.15</v>
+        <v>9.94</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.33</v>
+        <v>3.51</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:57</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>6.32</v>
+        <v>3.23</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>5.65</v>
+        <v>3.59</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>10.59</v>
+        <v>2.77</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>9.94</v>
+        <v>2.15</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>3</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
       <c r="J143" t="n">
-        <v>2.04</v>
+        <v>2.91</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.3</v>
+        <v>3.06</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.56</v>
+        <v>3.09</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:37</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.73</v>
+        <v>2.74</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>3.37</v>
+        <v>2.66</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>3</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Mjallby</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>3</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.06</v>
+        <v>2.3</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.09</v>
+        <v>3.56</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.07</v>
+        <v>3.37</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:37</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.74</v>
+        <v>3.73</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.66</v>
+        <v>3.37</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:58</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>4.39</v>
+        <v>3.9</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>5.54</v>
+        <v>3.8</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:57</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>5.63</v>
+        <v>3.84</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>7.87</v>
+        <v>4.56</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.9</v>
+        <v>4.39</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.8</v>
+        <v>5.54</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:57</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.84</v>
+        <v>5.63</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>4.56</v>
+        <v>7.87</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Hammarby</t>
-        </is>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
       <c r="J190" t="n">
-        <v>5.32</v>
+        <v>3.51</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,48 +17892,48 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>6.74</v>
+        <v>3.63</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
+          <t>24/09/2023 17:19</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
           <t>24/09/2023 17:29</t>
         </is>
       </c>
-      <c r="N190" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="O190" t="inlineStr">
+      <c r="R190" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S190" t="inlineStr">
         <is>
           <t>17/09/2023 16:43</t>
         </is>
       </c>
-      <c r="P190" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="Q190" t="inlineStr">
-        <is>
-          <t>24/09/2023 17:29</t>
-        </is>
-      </c>
-      <c r="R190" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:43</t>
-        </is>
-      </c>
       <c r="T190" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>24/09/2023 17:29</t>
+          <t>24/09/2023 17:19</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hacken/KxXJixXa/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
         <v>1</v>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Hacken</t>
-        </is>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
       <c r="J191" t="n">
-        <v>3.51</v>
+        <v>5.32</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>3.63</v>
+        <v>6.74</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>24/09/2023 17:19</t>
+          <t>24/09/2023 17:29</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.8</v>
+        <v>4.21</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>4.02</v>
+        <v>4.87</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         </is>
       </c>
       <c r="R191" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>1.98</v>
+        <v>1.47</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>24/09/2023 17:19</t>
+          <t>24/09/2023 17:29</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hacken/KxXJixXa/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,14 +18061,14 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>4.35</v>
+        <v>2.19</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>4.22</v>
+        <v>2.53</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.81</v>
+        <v>3.71</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>1.77</v>
+        <v>3.23</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>1.88</v>
+        <v>2.76</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -18153,14 +18153,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2.19</v>
+        <v>4.35</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.53</v>
+        <v>4.22</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.71</v>
+        <v>3.81</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.23</v>
+        <v>1.77</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.76</v>
+        <v>1.88</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
         </is>
       </c>
     </row>
@@ -19249,30 +19249,30 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>3.28</v>
+        <v>2.28</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -19280,40 +19280,40 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.75</v>
+        <v>3.51</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.99</v>
+        <v>3.69</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>2.14</v>
+        <v>3.24</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>2.06</v>
+        <v>3.71</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J206" t="n">
-        <v>4.61</v>
+        <v>3.28</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.84</v>
+        <v>3.99</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2.28</v>
+        <v>4.61</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.05</v>
+        <v>4.8</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.51</v>
+        <v>3.98</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.69</v>
+        <v>3.84</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.24</v>
+        <v>1.74</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.71</v>
+        <v>1.78</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
         </is>
       </c>
     </row>
@@ -19866,6 +19866,558 @@
       <c r="V211" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-brommapojkarna/SxD6WXab/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T212" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-mjallby/pEN1XDph/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-hammarby/bNlqFWUN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45221.72916666666</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>4</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:27</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-norrkoping/WAJcYgVo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45221.72916666666</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>5</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Varberg</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:25</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varberg/GbqlEjpU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45222.79166666666</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>3</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T216" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-ifk-goteborg/6TBAViF4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45222.79861111111</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>3</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:09</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:09</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:09</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-aik/I7VF9Aho/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V217"/>
+  <dimension ref="A1:V225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.99</v>
+        <v>3.49</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>10/04/2023 13:12</t>
+          <t>11/04/2023 07:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.83</v>
+        <v>3.79</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>16/04/2023 17:21</t>
+          <t>16/04/2023 16:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>10/04/2023 13:12</t>
+          <t>11/04/2023 07:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.73</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>16/04/2023 17:21</t>
+          <t>16/04/2023 16:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.88</v>
+        <v>2.13</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>10/04/2023 13:12</t>
+          <t>11/04/2023 07:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.65</v>
+        <v>2.13</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>16/04/2023 17:21</t>
+          <t>16/04/2023 16:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-degerfors/Mk35eBEi/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-djurgarden/ra41diao/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.49</v>
+        <v>1.99</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11/04/2023 07:12</t>
+          <t>10/04/2023 13:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.79</v>
+        <v>1.83</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16/04/2023 16:59</t>
+          <t>16/04/2023 17:21</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>11/04/2023 07:12</t>
+          <t>10/04/2023 13:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.73</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>16/04/2023 16:59</t>
+          <t>16/04/2023 17:21</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.13</v>
+        <v>3.88</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>11/04/2023 07:12</t>
+          <t>10/04/2023 13:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.13</v>
+        <v>4.65</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>16/04/2023 16:59</t>
+          <t>16/04/2023 17:21</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-djurgarden/ra41diao/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-degerfors/Mk35eBEi/</t>
         </is>
       </c>
     </row>
@@ -3701,30 +3701,30 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,40 +3732,40 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.97</v>
+        <v>4.08</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:22</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>8.300000000000001</v>
+        <v>4.73</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>10.38</v>
+        <v>3.6</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:23</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
         </is>
       </c>
     </row>
@@ -3793,30 +3793,30 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,40 +3824,40 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.08</v>
+        <v>5.97</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:22</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.73</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.6</v>
+        <v>10.38</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:23</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>4.57</v>
+        <v>1.93</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>1.99</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.78</v>
+        <v>3.96</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.47</v>
+        <v>4.15</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>1.93</v>
+        <v>4.57</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.99</v>
+        <v>8</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.51</v>
+        <v>4.47</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.96</v>
+        <v>1.78</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.15</v>
+        <v>1.47</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>1.39</v>
+        <v>2.38</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.51</v>
+        <v>2.48</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:33</t>
+          <t>14/05/2023 14:53</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.93</v>
+        <v>3.69</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.58</v>
+        <v>3.4</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:53</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>8.19</v>
+        <v>2.88</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>6.34</v>
+        <v>3.02</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:47</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-varnamo/IwjgBEA6/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-djurgarden/vmikCfe0/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.38</v>
+        <v>1.39</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.48</v>
+        <v>1.51</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:53</t>
+          <t>14/05/2023 14:33</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.69</v>
+        <v>4.93</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.4</v>
+        <v>4.58</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:53</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.88</v>
+        <v>8.19</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.02</v>
+        <v>6.34</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:47</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-djurgarden/vmikCfe0/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-varnamo/IwjgBEA6/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>5.22</v>
+        <v>1.6</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>09/05/2023 16:41</t>
+          <t>09/05/2023 16:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>7.71</v>
+        <v>1.74</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>14/05/2023 17:29</t>
+          <t>14/05/2023 17:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>09/05/2023 16:41</t>
+          <t>09/05/2023 16:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.58</v>
+        <v>3.73</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>14/05/2023 17:29</t>
+          <t>14/05/2023 17:22</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.64</v>
+        <v>5.77</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>09/05/2023 16:41</t>
+          <t>09/05/2023 16:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.46</v>
+        <v>5.38</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>14/05/2023 17:29</t>
+          <t>14/05/2023 17:22</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-malmo-ff/Q3g19huJ/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-brommapojkarna/S8XqYyIJ/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Brommapojkarna</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.6</v>
+        <v>5.22</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>09/05/2023 16:42</t>
+          <t>09/05/2023 16:41</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.74</v>
+        <v>7.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>14/05/2023 17:22</t>
+          <t>14/05/2023 17:29</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.24</v>
+        <v>4.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>09/05/2023 16:42</t>
+          <t>09/05/2023 16:41</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.73</v>
+        <v>4.58</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>14/05/2023 17:22</t>
+          <t>14/05/2023 17:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>5.77</v>
+        <v>1.64</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>09/05/2023 16:42</t>
+          <t>09/05/2023 16:41</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.38</v>
+        <v>1.46</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>14/05/2023 17:22</t>
+          <t>14/05/2023 17:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-brommapojkarna/S8XqYyIJ/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-malmo-ff/Q3g19huJ/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.39</v>
+        <v>3.69</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:25</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.47</v>
+        <v>3.91</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.5</v>
+        <v>4.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.69</v>
+        <v>3.39</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:25</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.91</v>
+        <v>2.47</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.06</v>
+        <v>2.5</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
       <c r="J78" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>24/05/2023 19:13</t>
+          <t>22/05/2023 19:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.88</v>
+        <v>2.27</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/05/2023 14:34</t>
+          <t>28/05/2023 13:18</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.62</v>
+        <v>3.49</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>24/05/2023 19:13</t>
+          <t>22/05/2023 19:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.57</v>
+        <v>3.33</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/05/2023 14:34</t>
+          <t>28/05/2023 14:08</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.21</v>
+        <v>3.82</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>24/05/2023 19:13</t>
+          <t>22/05/2023 19:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/05/2023 14:34</t>
+          <t>28/05/2023 13:18</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-aik/GnchtZ9t/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-norrkoping/pSl9xi95/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>22/05/2023 19:12</t>
+          <t>24/05/2023 19:13</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 13:18</t>
+          <t>28/05/2023 14:34</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.49</v>
+        <v>3.62</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>22/05/2023 19:12</t>
+          <t>24/05/2023 19:13</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.33</v>
+        <v>3.57</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 14:08</t>
+          <t>28/05/2023 14:34</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.82</v>
+        <v>4.21</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>22/05/2023 19:12</t>
+          <t>24/05/2023 19:13</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 13:18</t>
+          <t>28/05/2023 14:34</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-norrkoping/pSl9xi95/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-aik/GnchtZ9t/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.16</v>
+        <v>2.17</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.76</v>
+        <v>3.42</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.94</v>
+        <v>3.34</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/06/2023 14:55</t>
+          <t>11/06/2023 14:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>2</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
       <c r="J97" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.17</v>
+        <v>4.16</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.42</v>
+        <v>2.76</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.34</v>
+        <v>1.94</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>11/06/2023 14:59</t>
+          <t>11/06/2023 14:55</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-ifk-goteborg/xx2A5kwh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-elfsborg/SA6am8NN/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.29</v>
+        <v>2.94</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.71</v>
+        <v>3.26</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9632,11 +9632,11 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:53</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.06</v>
+        <v>2.52</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.94</v>
+        <v>2.29</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.26</v>
+        <v>2.71</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:53</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>1.28</v>
+        <v>2.45</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.34</v>
+        <v>2.74</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,40 +11184,40 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>6.13</v>
+        <v>3.54</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>6</v>
+        <v>3.59</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
+          <t>15/07/2023 17:23</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>09/07/2023 15:11</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
           <t>15/07/2023 17:29</t>
         </is>
       </c>
-      <c r="R117" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T117" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>15/07/2023 17:29</t>
-        </is>
-      </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
         </is>
       </c>
     </row>
@@ -11245,30 +11245,30 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.74</v>
+        <v>1.34</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,31 +11276,31 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.54</v>
+        <v>6.13</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.59</v>
+        <v>6</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/07/2023 17:23</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.94</v>
+        <v>9.24</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.61</v>
+        <v>8.41</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
         </is>
       </c>
     </row>
@@ -11337,46 +11337,46 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>16/07/2023 14:40</t>
+          <t>16/07/2023 14:42</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.64</v>
+        <v>4.96</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.08</v>
+        <v>5.44</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.39</v>
+        <v>6.61</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.17</v>
+        <v>8.41</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
         </is>
       </c>
     </row>
@@ -11429,46 +11429,46 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16/07/2023 14:42</t>
+          <t>16/07/2023 14:40</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.96</v>
+        <v>3.64</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5.44</v>
+        <v>4.08</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.61</v>
+        <v>4.39</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>8.41</v>
+        <v>5.17</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,71 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.72</v>
+        <v>3.45</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>16/07/2023 17:42</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.75</v>
+        <v>3.13</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>23/07/2023 14:55</t>
+          <t>23/07/2023 14:59</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.11</v>
+        <v>3.56</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>16/07/2023 17:42</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.2</v>
+        <v>3.31</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>23/07/2023 14:57</t>
+          <t>23/07/2023 14:54</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.59</v>
+        <v>2.14</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>16/07/2023 17:42</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>4.57</v>
+        <v>2.46</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>23/07/2023 14:57</t>
+          <t>23/07/2023 14:59</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-degerfors/6HVKDPhQ/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-malmo-ff/fJ1W6gKD/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,71 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 17:42</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.13</v>
+        <v>1.75</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>23/07/2023 14:59</t>
+          <t>23/07/2023 14:55</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.56</v>
+        <v>4.11</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 17:42</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.31</v>
+        <v>4.2</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>23/07/2023 14:54</t>
+          <t>23/07/2023 14:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.14</v>
+        <v>4.59</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 17:42</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.46</v>
+        <v>4.57</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>23/07/2023 14:59</t>
+          <t>23/07/2023 14:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-malmo-ff/fJ1W6gKD/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-degerfors/6HVKDPhQ/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.33</v>
+        <v>3.51</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>31/07/2023 18:57</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>6.32</v>
+        <v>3.23</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>5.65</v>
+        <v>3.59</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>10.59</v>
+        <v>2.77</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>23/07/2023 22:42</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>9.94</v>
+        <v>2.15</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>31/07/2023 19:00</t>
+          <t>31/07/2023 18:59</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.72</v>
+        <v>1.25</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>3.51</v>
+        <v>1.33</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 18:57</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.23</v>
+        <v>6.32</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.59</v>
+        <v>5.65</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.77</v>
+        <v>10.59</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 22:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.15</v>
+        <v>9.94</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>31/07/2023 18:59</t>
+          <t>31/07/2023 19:00</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-aik/G69IM2Vt/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varnamo/rJv43uVI/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>3</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Mjallby</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>3</v>
-      </c>
       <c r="J143" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.06</v>
+        <v>2.3</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.09</v>
+        <v>3.56</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.07</v>
+        <v>3.37</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:37</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>2.74</v>
+        <v>3.73</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.66</v>
+        <v>3.37</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:58</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>3</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.04</v>
+        <v>2.91</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.3</v>
+        <v>3.06</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.56</v>
+        <v>3.09</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:37</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.73</v>
+        <v>2.74</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>3.37</v>
+        <v>2.66</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
         </is>
       </c>
     </row>
@@ -14557,30 +14557,30 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
         <v>1</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>2</v>
-      </c>
       <c r="J154" t="n">
-        <v>2.73</v>
+        <v>1.99</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>3.07</v>
+        <v>2.01</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -14588,31 +14588,31 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.53</v>
+        <v>3.67</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.47</v>
+        <v>3.67</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>19/08/2023 14:58</t>
+          <t>19/08/2023 14:59</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.62</v>
+        <v>3.88</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.41</v>
+        <v>3.86</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-ifk-goteborg/IBLRQ8Sq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-halmstad/tjUaVlKS/</t>
         </is>
       </c>
     </row>
@@ -14649,30 +14649,30 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>1.99</v>
+        <v>2.73</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.01</v>
+        <v>3.07</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14680,40 +14680,40 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.67</v>
+        <v>3.53</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.67</v>
+        <v>3.47</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
+          <t>19/08/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>14/08/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
           <t>19/08/2023 14:59</t>
         </is>
       </c>
-      <c r="R155" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:42</t>
-        </is>
-      </c>
-      <c r="T155" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t>19/08/2023 14:59</t>
-        </is>
-      </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-halmstad/tjUaVlKS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-ifk-goteborg/IBLRQ8Sq/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.38</v>
+        <v>2.77</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.49</v>
+        <v>2.81</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>5.17</v>
+        <v>3.27</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:08</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>7.8</v>
+        <v>2.75</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>7.11</v>
+        <v>2.71</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2.77</v>
+        <v>1.38</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.81</v>
+        <v>1.49</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.27</v>
+        <v>5.17</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.3</v>
+        <v>4.51</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:08</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>2.75</v>
+        <v>7.8</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>2.71</v>
+        <v>7.11</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
         </is>
       </c>
     </row>
@@ -17133,22 +17133,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J182" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,15 +17156,15 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>17/09/2023 17:27</t>
+          <t>17/09/2023 17:22</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>5.06</v>
+        <v>6.33</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -17172,15 +17172,15 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>4.74</v>
+        <v>6.18</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>17/09/2023 17:27</t>
+          <t>17/09/2023 17:28</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>7.65</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17188,16 +17188,16 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>6.69</v>
+        <v>8.5</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>17/09/2023 17:27</t>
+          <t>17/09/2023 17:22</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-kalmar/vLCZCn38/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-halmstad/hOGwC6IE/</t>
         </is>
       </c>
     </row>
@@ -17225,22 +17225,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
         <v>3</v>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Halmstad</t>
-        </is>
-      </c>
-      <c r="I183" t="n">
-        <v>2</v>
-      </c>
       <c r="J183" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>17/09/2023 17:22</t>
+          <t>17/09/2023 17:27</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>6.33</v>
+        <v>5.06</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>6.18</v>
+        <v>4.74</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>17/09/2023 17:28</t>
+          <t>17/09/2023 17:27</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>9.369999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>8.5</v>
+        <v>6.69</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>17/09/2023 17:22</t>
+          <t>17/09/2023 17:27</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-halmstad/hOGwC6IE/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-kalmar/vLCZCn38/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,14 +18061,14 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2.19</v>
+        <v>4.35</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.53</v>
+        <v>4.22</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.71</v>
+        <v>3.81</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.23</v>
+        <v>1.77</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.76</v>
+        <v>1.88</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -18153,14 +18153,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>4.35</v>
+        <v>2.19</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>4.22</v>
+        <v>2.53</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.81</v>
+        <v>3.71</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>1.77</v>
+        <v>3.23</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>1.88</v>
+        <v>2.76</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G196" t="n">
+        <v>3</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
         <v>2</v>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
       <c r="J196" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>01/10/2023 14:55</t>
+          <t>01/10/2023 14:48</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>4.07</v>
+        <v>4.31</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>4.51</v>
+        <v>5.05</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T196" t="n">
-        <v>3.82</v>
+        <v>5.5</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>01/10/2023 14:48</t>
+          <t>01/10/2023 14:56</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
         </is>
       </c>
     </row>
@@ -18513,71 +18513,71 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
+          <t>01/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
           <t>01/10/2023 14:48</t>
         </is>
       </c>
-      <c r="N197" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P197" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q197" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:52</t>
-        </is>
-      </c>
-      <c r="R197" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T197" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U197" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:56</t>
-        </is>
-      </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
         </is>
       </c>
     </row>
@@ -18605,71 +18605,71 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J198" t="n">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:26</t>
+          <t>01/10/2023 17:29</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.98</v>
+        <v>3.47</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.61</v>
+        <v>3.17</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:26</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>4.86</v>
+        <v>3.59</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T198" t="n">
-        <v>4.39</v>
+        <v>3.18</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:27</t>
+          <t>01/10/2023 17:29</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-ifk-goteborg/Kxgk7HWn/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-varnamo/KIA61D0O/</t>
         </is>
       </c>
     </row>
@@ -18697,71 +18697,71 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:29</t>
+          <t>01/10/2023 17:26</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.47</v>
+        <v>3.98</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.17</v>
+        <v>3.61</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:26</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>3.59</v>
+        <v>4.86</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.18</v>
+        <v>4.39</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:29</t>
+          <t>01/10/2023 17:27</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-varnamo/KIA61D0O/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-ifk-goteborg/Kxgk7HWn/</t>
         </is>
       </c>
     </row>
@@ -19249,30 +19249,30 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="n">
-        <v>2.28</v>
+        <v>3.28</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -19280,40 +19280,40 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.51</v>
+        <v>3.75</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.69</v>
+        <v>3.99</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.24</v>
+        <v>2.14</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.71</v>
+        <v>2.06</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Elfsborg</t>
-        </is>
-      </c>
-      <c r="I206" t="n">
-        <v>3</v>
-      </c>
       <c r="J206" t="n">
-        <v>3.28</v>
+        <v>4.61</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.75</v>
+        <v>3.98</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.99</v>
+        <v>3.84</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>2.14</v>
+        <v>1.74</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G207" t="n">
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
         <v>1</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
       <c r="J207" t="n">
-        <v>4.61</v>
+        <v>2.28</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>4.8</v>
+        <v>2.05</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.98</v>
+        <v>3.51</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.84</v>
+        <v>3.69</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>1.74</v>
+        <v>3.24</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>1.78</v>
+        <v>3.71</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
         </is>
       </c>
     </row>
@@ -19893,22 +19893,22 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -19916,15 +19916,15 @@
         </is>
       </c>
       <c r="L212" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:53</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.13</v>
+        <v>3.73</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -19932,15 +19932,15 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>22/10/2023 14:58</t>
+          <t>22/10/2023 14:53</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>3.32</v>
+        <v>4.17</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
@@ -19948,16 +19948,16 @@
         </is>
       </c>
       <c r="T212" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:53</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-mjallby/pEN1XDph/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-hammarby/bNlqFWUN/</t>
         </is>
       </c>
     </row>
@@ -19985,22 +19985,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -20008,15 +20008,15 @@
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>22/10/2023 14:53</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.73</v>
+        <v>3.13</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -20024,15 +20024,15 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.37</v>
+        <v>3.13</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>22/10/2023 14:53</t>
+          <t>22/10/2023 14:58</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.17</v>
+        <v>3.32</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
@@ -20040,16 +20040,16 @@
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>22/10/2023 14:53</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-hammarby/bNlqFWUN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-mjallby/pEN1XDph/</t>
         </is>
       </c>
     </row>
@@ -20418,6 +20418,742 @@
       <c r="V217" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-aik/I7VF9Aho/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:36</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:35</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T218" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:36</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-djurgarden/dMUgMVic/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45227.72916666666</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Varberg</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:27</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-degerfors/jqUcLk73/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>3</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varnamo/prkcMmxi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>2</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-hacken/IVVkNBxi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-malmo-ff/6ijgNTMp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45228.72916666666</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-halmstad/hpAITVqH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45229.79166666666</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>2</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Sirius</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T224" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-sirius/z9aNSkaN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45229.79861111111</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:08</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:08</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:01</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-elfsborg/lC3RR9ET/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V225"/>
+  <dimension ref="A1:V227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.49</v>
+        <v>1.99</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>11/04/2023 07:12</t>
+          <t>10/04/2023 13:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.79</v>
+        <v>1.83</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>16/04/2023 16:59</t>
+          <t>16/04/2023 17:21</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>11/04/2023 07:12</t>
+          <t>10/04/2023 13:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3.73</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>16/04/2023 16:59</t>
+          <t>16/04/2023 17:21</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.13</v>
+        <v>3.88</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>11/04/2023 07:12</t>
+          <t>10/04/2023 13:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.13</v>
+        <v>4.65</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>16/04/2023 16:59</t>
+          <t>16/04/2023 17:21</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-djurgarden/ra41diao/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-degerfors/Mk35eBEi/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.99</v>
+        <v>3.49</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10/04/2023 13:12</t>
+          <t>11/04/2023 07:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.83</v>
+        <v>3.79</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16/04/2023 17:21</t>
+          <t>16/04/2023 16:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>10/04/2023 13:12</t>
+          <t>11/04/2023 07:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.73</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>16/04/2023 17:21</t>
+          <t>16/04/2023 16:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.88</v>
+        <v>2.13</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>10/04/2023 13:12</t>
+          <t>11/04/2023 07:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.65</v>
+        <v>2.13</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>16/04/2023 17:21</t>
+          <t>16/04/2023 16:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-degerfors/Mk35eBEi/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-djurgarden/ra41diao/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.18</v>
+        <v>1.58</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.51</v>
+        <v>1.99</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.59</v>
+        <v>4.46</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.3</v>
+        <v>5.36</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.21</v>
+        <v>4.04</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,22 +3617,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.58</v>
+        <v>3.18</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.99</v>
+        <v>3.51</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,15 +3640,15 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.46</v>
+        <v>3.59</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.36</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.04</v>
+        <v>2.21</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.78</v>
+        <v>3.81</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.71</v>
+        <v>3.27</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.34</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>5.07</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:43</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.81</v>
+        <v>1.78</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>4.34</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.18</v>
+        <v>5.07</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:43</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>1.93</v>
+        <v>4.57</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.99</v>
+        <v>8</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.51</v>
+        <v>4.47</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.96</v>
+        <v>1.78</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.15</v>
+        <v>1.47</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>4.57</v>
+        <v>1.93</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>1.99</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.78</v>
+        <v>3.96</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.47</v>
+        <v>4.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.89</v>
+        <v>4.27</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.33</v>
+        <v>4.02</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.74</v>
+        <v>6.38</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>14/05/2023 17:42</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.38</v>
+        <v>6.31</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:56</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hacken/WtGSPDPa/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.27</v>
+        <v>3.92</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>6.38</v>
+        <v>4.55</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>6.31</v>
+        <v>4.08</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.61</v>
+        <v>4.33</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.55</v>
+        <v>3.74</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 17:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.08</v>
+        <v>4.38</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hacken/WtGSPDPa/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.69</v>
+        <v>3.39</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:25</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.91</v>
+        <v>2.47</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.06</v>
+        <v>2.5</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.39</v>
+        <v>3.69</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:25</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.47</v>
+        <v>3.91</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.5</v>
+        <v>4.06</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>5.01</v>
+        <v>4.3</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>7.44</v>
+        <v>5.96</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.63</v>
+        <v>6.4</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.3</v>
+        <v>5.01</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.33</v>
+        <v>5.3</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.96</v>
+        <v>7.44</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>6.4</v>
+        <v>7.63</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,48 +10900,48 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:31</t>
+          <t>10/07/2023 18:56</t>
         </is>
       </c>
       <c r="N114" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
         <v>3.76</v>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>10/07/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S114" t="inlineStr">
         <is>
           <t>03/07/2023 19:11</t>
         </is>
       </c>
-      <c r="P114" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>10/07/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R114" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
       <c r="T114" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:58</t>
+          <t>10/07/2023 18:57</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-halmstad/YqoxcIjk/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-varberg/OAa62vTR/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.72</v>
+        <v>2.09</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:56</t>
+          <t>10/07/2023 18:31</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>4.15</v>
+        <v>3.76</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:56</t>
+          <t>10/07/2023 18:58</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>5.35</v>
+        <v>4.11</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:57</t>
+          <t>10/07/2023 18:58</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-varberg/OAa62vTR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-halmstad/YqoxcIjk/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.74</v>
+        <v>1.34</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,31 +11184,31 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.54</v>
+        <v>6.13</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.59</v>
+        <v>6</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>15/07/2023 17:23</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.94</v>
+        <v>9.24</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.61</v>
+        <v>8.41</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
         </is>
       </c>
     </row>
@@ -11245,30 +11245,30 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>1.28</v>
+        <v>2.45</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.34</v>
+        <v>2.74</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,40 +11276,40 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>6.13</v>
+        <v>3.54</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>6</v>
+        <v>3.59</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
+          <t>15/07/2023 17:23</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>09/07/2023 15:11</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
           <t>15/07/2023 17:29</t>
         </is>
       </c>
-      <c r="R118" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T118" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>15/07/2023 17:29</t>
-        </is>
-      </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
         </is>
       </c>
     </row>
@@ -11337,46 +11337,46 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>16/07/2023 14:42</t>
+          <t>16/07/2023 14:40</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.96</v>
+        <v>3.64</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.44</v>
+        <v>4.08</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>6.61</v>
+        <v>4.39</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>8.41</v>
+        <v>5.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
         </is>
       </c>
     </row>
@@ -11429,46 +11429,46 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16/07/2023 14:40</t>
+          <t>16/07/2023 14:42</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.64</v>
+        <v>4.96</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.08</v>
+        <v>5.44</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.39</v>
+        <v>6.61</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.17</v>
+        <v>8.41</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,71 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 17:42</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.13</v>
+        <v>1.75</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>23/07/2023 14:59</t>
+          <t>23/07/2023 14:55</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.56</v>
+        <v>4.11</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 17:42</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.31</v>
+        <v>4.2</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>23/07/2023 14:54</t>
+          <t>23/07/2023 14:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.14</v>
+        <v>4.59</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 17:42</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.46</v>
+        <v>4.57</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>23/07/2023 14:59</t>
+          <t>23/07/2023 14:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-malmo-ff/fJ1W6gKD/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-degerfors/6HVKDPhQ/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,71 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.72</v>
+        <v>3.45</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>16/07/2023 17:42</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.75</v>
+        <v>3.13</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>23/07/2023 14:55</t>
+          <t>23/07/2023 14:59</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.11</v>
+        <v>3.56</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>16/07/2023 17:42</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.2</v>
+        <v>3.31</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>23/07/2023 14:57</t>
+          <t>23/07/2023 14:54</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.59</v>
+        <v>2.14</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>16/07/2023 17:42</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>4.57</v>
+        <v>2.46</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>23/07/2023 14:57</t>
+          <t>23/07/2023 14:59</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-degerfors/6HVKDPhQ/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-malmo-ff/fJ1W6gKD/</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -13369,14 +13369,14 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.72</v>
+        <v>1.39</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>3.41</v>
+        <v>1.31</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.28</v>
+        <v>5.41</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.09</v>
+        <v>6.08</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>06/08/2023 14:54</t>
+          <t>06/08/2023 14:58</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>2.73</v>
+        <v>7.65</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>2.44</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-aik/2LWAaWTp/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-sirius/jq4sHbaI/</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -13461,14 +13461,14 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>1.39</v>
+        <v>2.72</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.31</v>
+        <v>3.41</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>5.41</v>
+        <v>3.28</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,32 +13492,32 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>6.08</v>
+        <v>3.09</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
+          <t>06/08/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>31/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
           <t>06/08/2023 14:58</t>
         </is>
       </c>
-      <c r="R142" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>31/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T142" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="U142" t="inlineStr">
-        <is>
-          <t>06/08/2023 14:58</t>
-        </is>
-      </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-sirius/jq4sHbaI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-aik/2LWAaWTp/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>3</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Mjallby</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>3</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.91</v>
+        <v>1.32</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.06</v>
+        <v>1.32</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:44</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.09</v>
+        <v>5.72</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.07</v>
+        <v>5.71</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.74</v>
+        <v>9.93</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.66</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-halmstad/IV5ZIKU5/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
         <v>3</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Halmstad</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
       <c r="J145" t="n">
-        <v>1.32</v>
+        <v>2.91</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.32</v>
+        <v>3.06</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:44</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>5.72</v>
+        <v>3.09</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,32 +13768,32 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>5.71</v>
+        <v>3.07</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
+          <t>07/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>31/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
           <t>07/08/2023 18:58</t>
         </is>
       </c>
-      <c r="R145" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>31/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T145" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="U145" t="inlineStr">
-        <is>
-          <t>07/08/2023 18:58</t>
-        </is>
-      </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-halmstad/IV5ZIKU5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,63 +14105,63 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J149" t="n">
-        <v>3.11</v>
+        <v>2.49</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>3.26</v>
+        <v>2.54</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:27</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:29</t>
+          <t>13/08/2023 16:37</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.23</v>
+        <v>2.92</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.3</v>
+        <v>2.97</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:28</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.49</v>
+        <v>1.22</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.54</v>
+        <v>1.32</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.4</v>
+        <v>7.55</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.33</v>
+        <v>6.37</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>13/08/2023 16:37</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.92</v>
+        <v>12.03</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.97</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
         </is>
       </c>
     </row>
@@ -14281,71 +14281,71 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>1.22</v>
+        <v>3.11</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.32</v>
+        <v>3.26</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:27</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>7.55</v>
+        <v>3.72</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>6.37</v>
+        <v>3.48</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:29</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>12.03</v>
+        <v>2.23</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>8.359999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:28</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1.37</v>
+        <v>1.77</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:55</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>6</v>
+        <v>3.93</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>5.16</v>
+        <v>4.23</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>6.67</v>
+        <v>4.66</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.49</v>
+        <v>6.07</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:31</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="n">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:55</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.93</v>
+        <v>6</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4.23</v>
+        <v>5.16</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.66</v>
+        <v>6.67</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>6.07</v>
+        <v>5.49</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>20/08/2023 14:31</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-djurgarden/UomvzD5c/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-sirius/KztiXAkG/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
+          <t>01/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
           <t>01/10/2023 14:48</t>
         </is>
       </c>
-      <c r="N196" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P196" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q196" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:52</t>
-        </is>
-      </c>
-      <c r="R196" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T196" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U196" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:56</t>
-        </is>
-      </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
         </is>
       </c>
     </row>
@@ -18513,71 +18513,71 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G197" t="n">
+        <v>3</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
         <v>2</v>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
       <c r="J197" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>01/10/2023 14:55</t>
+          <t>01/10/2023 14:48</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4.07</v>
+        <v>4.31</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>4.51</v>
+        <v>5.05</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T197" t="n">
-        <v>3.82</v>
+        <v>5.5</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>01/10/2023 14:48</t>
+          <t>01/10/2023 14:56</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
         </is>
       </c>
     </row>
@@ -18605,71 +18605,71 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:29</t>
+          <t>01/10/2023 17:26</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.47</v>
+        <v>3.98</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.17</v>
+        <v>3.61</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:26</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>3.59</v>
+        <v>4.86</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.18</v>
+        <v>4.39</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:29</t>
+          <t>01/10/2023 17:27</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-varnamo/KIA61D0O/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-ifk-goteborg/Kxgk7HWn/</t>
         </is>
       </c>
     </row>
@@ -18697,71 +18697,71 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J199" t="n">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:26</t>
+          <t>01/10/2023 17:29</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.98</v>
+        <v>3.47</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.61</v>
+        <v>3.17</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:26</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>4.86</v>
+        <v>3.59</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T199" t="n">
-        <v>4.39</v>
+        <v>3.18</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:27</t>
+          <t>01/10/2023 17:29</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-ifk-goteborg/Kxgk7HWn/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-varnamo/KIA61D0O/</t>
         </is>
       </c>
     </row>
@@ -19249,30 +19249,30 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>3.28</v>
+        <v>2.28</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -19280,40 +19280,40 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.75</v>
+        <v>3.51</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.99</v>
+        <v>3.69</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>2.14</v>
+        <v>3.24</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>2.06</v>
+        <v>3.71</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J206" t="n">
-        <v>4.61</v>
+        <v>3.28</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.84</v>
+        <v>3.99</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2.28</v>
+        <v>4.61</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.05</v>
+        <v>4.8</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.51</v>
+        <v>3.98</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.69</v>
+        <v>3.84</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.24</v>
+        <v>1.74</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.71</v>
+        <v>1.78</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
         </is>
       </c>
     </row>
@@ -21154,6 +21154,190 @@
       <c r="V225" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-elfsborg/lC3RR9ET/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T226" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-hammarby/v3VYM2r8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45234.72916666666</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>2</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Sirius</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>4</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T227" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-sirius/2JX1K9M9/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V227"/>
+  <dimension ref="A1:V228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>09/05/2023 18:54</t>
+          <t>09/05/2023 18:59</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.52</v>
+        <v>4.16</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.53</v>
+        <v>3.85</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>09/05/2023 18:58</t>
+          <t>09/05/2023 18:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.98</v>
+        <v>5.23</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>5.33</v>
+        <v>5.54</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-varberg/CYz9WOtF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-mjallby/QPSLAsKe/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>09/05/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>09/05/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
           <t>09/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>09/05/2023 18:59</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>09/05/2023 18:59</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-mjallby/QPSLAsKe/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-varberg/CYz9WOtF/</t>
         </is>
       </c>
     </row>
@@ -18605,71 +18605,71 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J198" t="n">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:26</t>
+          <t>01/10/2023 17:29</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.98</v>
+        <v>3.47</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.61</v>
+        <v>3.17</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:26</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>4.86</v>
+        <v>3.59</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T198" t="n">
-        <v>4.39</v>
+        <v>3.18</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:27</t>
+          <t>01/10/2023 17:29</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-ifk-goteborg/Kxgk7HWn/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-varnamo/KIA61D0O/</t>
         </is>
       </c>
     </row>
@@ -18697,71 +18697,71 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:29</t>
+          <t>01/10/2023 17:26</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.47</v>
+        <v>3.98</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.17</v>
+        <v>3.61</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:26</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>3.59</v>
+        <v>4.86</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.18</v>
+        <v>4.39</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:29</t>
+          <t>01/10/2023 17:27</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-varnamo/KIA61D0O/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-ifk-goteborg/Kxgk7HWn/</t>
         </is>
       </c>
     </row>
@@ -19249,71 +19249,71 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.28</v>
+        <v>4.61</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.05</v>
+        <v>4.8</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.51</v>
+        <v>3.98</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.69</v>
+        <v>3.84</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.24</v>
+        <v>1.74</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.71</v>
+        <v>1.78</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
         </is>
       </c>
     </row>
@@ -19341,30 +19341,30 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>3.28</v>
+        <v>2.28</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -19372,40 +19372,40 @@
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.75</v>
+        <v>3.51</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.99</v>
+        <v>3.69</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>2.14</v>
+        <v>3.24</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>2.06</v>
+        <v>3.71</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J207" t="n">
-        <v>4.61</v>
+        <v>3.28</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.84</v>
+        <v>3.99</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,15 +20100,15 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>22/10/2023 17:27</t>
+          <t>22/10/2023 17:25</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>5.23</v>
+        <v>11.24</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -20116,15 +20116,15 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>5.71</v>
+        <v>13.45</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>22/10/2023 17:29</t>
+          <t>22/10/2023 17:28</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>6.6</v>
+        <v>21.58</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
@@ -20132,16 +20132,16 @@
         </is>
       </c>
       <c r="T214" t="n">
-        <v>7.41</v>
+        <v>26.94</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>22/10/2023 17:29</t>
+          <t>22/10/2023 17:28</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-norrkoping/WAJcYgVo/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varberg/GbqlEjpU/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>22/10/2023 17:25</t>
+          <t>22/10/2023 17:27</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>11.24</v>
+        <v>5.23</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,15 +20208,15 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>13.45</v>
+        <v>5.71</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>22/10/2023 17:28</t>
+          <t>22/10/2023 17:29</t>
         </is>
       </c>
       <c r="R215" t="n">
-        <v>21.58</v>
+        <v>6.6</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
@@ -20224,16 +20224,16 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>26.94</v>
+        <v>7.41</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>22/10/2023 17:28</t>
+          <t>22/10/2023 17:29</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varberg/GbqlEjpU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-norrkoping/WAJcYgVo/</t>
         </is>
       </c>
     </row>
@@ -21338,6 +21338,98 @@
       <c r="V227" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-sirius/2JX1K9M9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>3</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:47</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-kalmar/Cdwmaaj1/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V228"/>
+  <dimension ref="A1:V231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.21</v>
+        <v>5.01</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.59</v>
+        <v>7.44</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.61</v>
+        <v>4.15</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.53</v>
+        <v>4.79</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.22</v>
+        <v>1.66</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.83</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>08/04/2023 14:55</t>
+          <t>08/04/2023 14:56</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
       <c r="J11" t="n">
-        <v>5.01</v>
+        <v>2.21</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7.44</v>
+        <v>2.59</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.15</v>
+        <v>3.61</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.79</v>
+        <v>3.53</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>3.22</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.47</v>
+        <v>2.83</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>08/04/2023 14:56</t>
+          <t>08/04/2023 14:55</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.19</v>
+        <v>3.71</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>16/04/2023 17:43</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.16</v>
+        <v>4.16</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>24/04/2023 18:55</t>
+          <t>24/04/2023 18:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.56</v>
+        <v>3.82</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>16/04/2023 17:43</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>24/04/2023 18:52</t>
+          <t>24/04/2023 18:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.29</v>
+        <v>1.96</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>16/04/2023 17:43</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.43</v>
+        <v>2.03</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>24/04/2023 18:55</t>
+          <t>24/04/2023 18:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-mjallby/GCv1po6j/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-aik/xMucoRjp/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.71</v>
+        <v>3.19</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>16/04/2023 17:43</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4.16</v>
+        <v>3.16</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>24/04/2023 18:59</t>
+          <t>24/04/2023 18:55</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.82</v>
+        <v>3.56</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>16/04/2023 17:43</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>24/04/2023 18:58</t>
+          <t>24/04/2023 18:52</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.96</v>
+        <v>2.29</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>16/04/2023 17:43</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.03</v>
+        <v>2.43</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>24/04/2023 18:58</t>
+          <t>24/04/2023 18:55</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-aik/xMucoRjp/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-mjallby/GCv1po6j/</t>
         </is>
       </c>
     </row>
@@ -3701,30 +3701,30 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,40 +3732,40 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.08</v>
+        <v>5.97</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:22</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.73</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.6</v>
+        <v>10.38</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:23</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
         </is>
       </c>
     </row>
@@ -3793,30 +3793,30 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,40 +3824,40 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>5.97</v>
+        <v>4.08</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:22</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>8.300000000000001</v>
+        <v>4.73</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>10.38</v>
+        <v>3.6</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:23</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.94</v>
+        <v>1.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.98</v>
+        <v>1.45</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.04</v>
+        <v>4.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:39</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.56</v>
+        <v>6.74</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.79</v>
+        <v>7.7</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.01</v>
+        <v>2.98</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.99</v>
+        <v>3.25</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.41</v>
+        <v>3.04</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:39</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.37</v>
+        <v>2.56</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.21</v>
+        <v>2.79</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.45</v>
+        <v>2.01</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.38</v>
+        <v>3.99</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>6.74</v>
+        <v>5.37</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>7.7</v>
+        <v>4.21</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
         <v>1.99</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1.79</v>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>04/05/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>04/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>3.96</v>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>04/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R46" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>04/05/2023 18:59</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>2.94</v>
+        <v>4.57</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.61</v>
+        <v>3.82</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.42</v>
+        <v>4.47</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:57</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.37</v>
+        <v>1.78</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>01/05/2023 15:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.37</v>
+        <v>1.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
       <c r="J48" t="n">
-        <v>4.57</v>
+        <v>2.94</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.82</v>
+        <v>3.61</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.47</v>
+        <v>3.42</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:57</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.47</v>
+        <v>2.37</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:56</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hammarby/K4sRL7Sd/</t>
         </is>
       </c>
     </row>
@@ -4897,46 +4897,46 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Brommapojkarna</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.51</v>
+        <v>3.96</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,15 +4944,15 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.96</v>
+        <v>3.69</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.15</v>
+        <v>4.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>09/05/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>09/05/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>09/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>09/05/2023 18:59</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>09/05/2023 18:59</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-mjallby/QPSLAsKe/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-varberg/CYz9WOtF/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>09/05/2023 18:54</t>
+          <t>09/05/2023 18:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.52</v>
+        <v>4.16</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.53</v>
+        <v>3.85</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>09/05/2023 18:58</t>
+          <t>09/05/2023 18:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.98</v>
+        <v>5.23</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.33</v>
+        <v>5.54</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-varberg/CYz9WOtF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-mjallby/QPSLAsKe/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.27</v>
+        <v>3.92</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>6.38</v>
+        <v>4.55</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>14/05/2023 15:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>6.31</v>
+        <v>4.08</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/05/2023 14:55</t>
+          <t>21/05/2023 14:41</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.92</v>
+        <v>4.27</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.61</v>
+        <v>4.02</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.55</v>
+        <v>6.38</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>14/05/2023 15:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.08</v>
+        <v>6.31</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/05/2023 14:41</t>
+          <t>21/05/2023 14:55</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-varberg/0M7qMVOO/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-mjallby/zFMJRZfm/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.3</v>
+        <v>5.01</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.33</v>
+        <v>5.3</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.96</v>
+        <v>7.44</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>6.4</v>
+        <v>7.63</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.01</v>
+        <v>4.3</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>7.44</v>
+        <v>5.96</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>7.63</v>
+        <v>6.4</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.94</v>
+        <v>2.29</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.26</v>
+        <v>2.71</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9632,11 +9632,11 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:53</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.29</v>
+        <v>2.94</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.71</v>
+        <v>3.26</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:53</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.06</v>
+        <v>2.52</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>1.29</v>
+        <v>2.98</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.35</v>
+        <v>2.92</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>09/07/2023 14:55</t>
+          <t>09/07/2023 14:59</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>5.75</v>
+        <v>3.54</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,32 +10640,32 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>5.33</v>
+        <v>3.59</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
+          <t>09/07/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
           <t>09/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R111" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
-      <c r="T111" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>09/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-mjallby/QJoYcbyq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-hammarby/Czptdx6e/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>2.98</v>
+        <v>1.29</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,48 +10716,48 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.92</v>
+        <v>1.35</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
+          <t>09/07/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
           <t>09/07/2023 14:59</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O112" t="inlineStr">
+      <c r="R112" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="S112" t="inlineStr">
         <is>
           <t>03/07/2023 19:11</t>
         </is>
       </c>
-      <c r="P112" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>09/07/2023 14:54</t>
-        </is>
-      </c>
-      <c r="R112" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
       <c r="T112" t="n">
-        <v>2.46</v>
+        <v>9.82</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>09/07/2023 14:59</t>
+          <t>09/07/2023 14:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-hammarby/Czptdx6e/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-mjallby/QJoYcbyq/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>1.28</v>
+        <v>2.45</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.34</v>
+        <v>2.74</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,40 +11184,40 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>6.13</v>
+        <v>3.54</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>6</v>
+        <v>3.59</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
+          <t>15/07/2023 17:23</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>09/07/2023 15:11</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
           <t>15/07/2023 17:29</t>
         </is>
       </c>
-      <c r="R117" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T117" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>15/07/2023 17:29</t>
-        </is>
-      </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
         </is>
       </c>
     </row>
@@ -11245,30 +11245,30 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.74</v>
+        <v>1.34</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,31 +11276,31 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.54</v>
+        <v>6.13</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.59</v>
+        <v>6</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/07/2023 17:23</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.94</v>
+        <v>9.24</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.61</v>
+        <v>8.41</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
         </is>
       </c>
     </row>
@@ -11337,46 +11337,46 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>16/07/2023 14:40</t>
+          <t>16/07/2023 14:42</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.64</v>
+        <v>4.96</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.08</v>
+        <v>5.44</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.39</v>
+        <v>6.61</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.17</v>
+        <v>8.41</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
         </is>
       </c>
     </row>
@@ -11429,46 +11429,46 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16/07/2023 14:42</t>
+          <t>16/07/2023 14:40</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.96</v>
+        <v>3.64</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5.44</v>
+        <v>4.08</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.61</v>
+        <v>4.39</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>8.41</v>
+        <v>5.17</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -13369,14 +13369,14 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>1.39</v>
+        <v>2.72</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.31</v>
+        <v>3.41</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>5.41</v>
+        <v>3.28</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,32 +13400,32 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>6.08</v>
+        <v>3.09</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
+          <t>06/08/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>31/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
           <t>06/08/2023 14:58</t>
         </is>
       </c>
-      <c r="R141" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>31/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T141" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>06/08/2023 14:58</t>
-        </is>
-      </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-sirius/jq4sHbaI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-aik/2LWAaWTp/</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -13461,14 +13461,14 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.72</v>
+        <v>1.39</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.41</v>
+        <v>1.31</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.28</v>
+        <v>5.41</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.09</v>
+        <v>6.08</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>06/08/2023 14:54</t>
+          <t>06/08/2023 14:58</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.73</v>
+        <v>7.65</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.44</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-aik/2LWAaWTp/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-sirius/jq4sHbaI/</t>
         </is>
       </c>
     </row>
@@ -14189,71 +14189,71 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.22</v>
+        <v>3.11</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.32</v>
+        <v>3.26</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:27</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>7.55</v>
+        <v>3.72</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>6.37</v>
+        <v>3.48</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:29</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>12.03</v>
+        <v>2.23</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>8.359999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:22</t>
+          <t>13/08/2023 17:28</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
         </is>
       </c>
     </row>
@@ -14281,71 +14281,71 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>3.11</v>
+        <v>1.22</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>3.26</v>
+        <v>1.32</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:27</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.72</v>
+        <v>7.55</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.48</v>
+        <v>6.37</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:29</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.23</v>
+        <v>12.03</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2.3</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>13/08/2023 17:28</t>
+          <t>13/08/2023 17:22</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varberg/KM0IIBzN/</t>
         </is>
       </c>
     </row>
@@ -14557,30 +14557,30 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="n">
-        <v>1.99</v>
+        <v>2.73</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.01</v>
+        <v>3.07</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -14588,40 +14588,40 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.67</v>
+        <v>3.53</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.67</v>
+        <v>3.47</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
+          <t>19/08/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>14/08/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
           <t>19/08/2023 14:59</t>
         </is>
       </c>
-      <c r="R154" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:42</t>
-        </is>
-      </c>
-      <c r="T154" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="U154" t="inlineStr">
-        <is>
-          <t>19/08/2023 14:59</t>
-        </is>
-      </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-halmstad/tjUaVlKS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-ifk-goteborg/IBLRQ8Sq/</t>
         </is>
       </c>
     </row>
@@ -14649,30 +14649,30 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G155" t="n">
+        <v>3</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
         <v>1</v>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I155" t="n">
-        <v>2</v>
-      </c>
       <c r="J155" t="n">
-        <v>2.73</v>
+        <v>1.99</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>3.07</v>
+        <v>2.01</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14680,31 +14680,31 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.53</v>
+        <v>3.67</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.47</v>
+        <v>3.67</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>19/08/2023 14:58</t>
+          <t>19/08/2023 14:59</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.62</v>
+        <v>3.88</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.41</v>
+        <v>3.86</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-ifk-goteborg/IBLRQ8Sq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-halmstad/tjUaVlKS/</t>
         </is>
       </c>
     </row>
@@ -17133,22 +17133,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
         <v>3</v>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Halmstad</t>
-        </is>
-      </c>
-      <c r="I182" t="n">
-        <v>2</v>
-      </c>
       <c r="J182" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,15 +17156,15 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>17/09/2023 17:22</t>
+          <t>17/09/2023 17:27</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>6.33</v>
+        <v>5.06</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -17172,15 +17172,15 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>6.18</v>
+        <v>4.74</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>17/09/2023 17:28</t>
+          <t>17/09/2023 17:27</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>9.369999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17188,16 +17188,16 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>8.5</v>
+        <v>6.69</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>17/09/2023 17:22</t>
+          <t>17/09/2023 17:27</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-halmstad/hOGwC6IE/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-kalmar/vLCZCn38/</t>
         </is>
       </c>
     </row>
@@ -17225,22 +17225,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J183" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>17/09/2023 17:27</t>
+          <t>17/09/2023 17:22</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>5.06</v>
+        <v>6.33</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>4.74</v>
+        <v>6.18</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>17/09/2023 17:27</t>
+          <t>17/09/2023 17:28</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>7.65</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>6.69</v>
+        <v>8.5</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>17/09/2023 17:27</t>
+          <t>17/09/2023 17:22</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-kalmar/vLCZCn38/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-halmstad/hOGwC6IE/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G196" t="n">
+        <v>3</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
         <v>2</v>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
       <c r="J196" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>01/10/2023 14:55</t>
+          <t>01/10/2023 14:48</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>4.07</v>
+        <v>4.31</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>4.51</v>
+        <v>5.05</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T196" t="n">
-        <v>3.82</v>
+        <v>5.5</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>01/10/2023 14:48</t>
+          <t>01/10/2023 14:56</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
         </is>
       </c>
     </row>
@@ -18513,71 +18513,71 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
+          <t>01/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
           <t>01/10/2023 14:48</t>
         </is>
       </c>
-      <c r="N197" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P197" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q197" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:52</t>
-        </is>
-      </c>
-      <c r="R197" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T197" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U197" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:56</t>
-        </is>
-      </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
         </is>
       </c>
     </row>
@@ -18605,71 +18605,71 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:29</t>
+          <t>01/10/2023 17:26</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.47</v>
+        <v>3.98</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.17</v>
+        <v>3.61</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:26</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>3.59</v>
+        <v>4.86</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.18</v>
+        <v>4.39</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>01/10/2023 17:29</t>
+          <t>01/10/2023 17:27</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-varnamo/KIA61D0O/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-ifk-goteborg/Kxgk7HWn/</t>
         </is>
       </c>
     </row>
@@ -18697,71 +18697,71 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J199" t="n">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:26</t>
+          <t>01/10/2023 17:29</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.98</v>
+        <v>3.47</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.61</v>
+        <v>3.17</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:26</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>4.86</v>
+        <v>3.59</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T199" t="n">
-        <v>4.39</v>
+        <v>3.18</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>01/10/2023 17:27</t>
+          <t>01/10/2023 17:29</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-ifk-goteborg/Kxgk7HWn/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-varnamo/KIA61D0O/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J205" t="n">
-        <v>4.61</v>
+        <v>3.28</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.84</v>
+        <v>3.99</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.28</v>
+        <v>4.61</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.05</v>
+        <v>4.8</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.51</v>
+        <v>3.98</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.69</v>
+        <v>3.84</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.24</v>
+        <v>1.74</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.71</v>
+        <v>1.78</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-malmo-ff/p0rTIEVb/</t>
         </is>
       </c>
     </row>
@@ -19433,30 +19433,30 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>3.28</v>
+        <v>2.28</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
@@ -19464,40 +19464,40 @@
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.75</v>
+        <v>3.51</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.99</v>
+        <v>3.69</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>2.14</v>
+        <v>3.24</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>2.06</v>
+        <v>3.71</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-elfsborg/Q9jyHh0B/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-norrkoping/SOXXHYp5/</t>
         </is>
       </c>
     </row>
@@ -19893,22 +19893,22 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -19916,15 +19916,15 @@
         </is>
       </c>
       <c r="L212" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>22/10/2023 14:53</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.73</v>
+        <v>3.13</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -19932,15 +19932,15 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.37</v>
+        <v>3.13</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>22/10/2023 14:53</t>
+          <t>22/10/2023 14:58</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>4.17</v>
+        <v>3.32</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
@@ -19948,16 +19948,16 @@
         </is>
       </c>
       <c r="T212" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>22/10/2023 14:53</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-hammarby/bNlqFWUN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-mjallby/pEN1XDph/</t>
         </is>
       </c>
     </row>
@@ -19985,22 +19985,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -20008,15 +20008,15 @@
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:53</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.13</v>
+        <v>3.73</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -20024,15 +20024,15 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>22/10/2023 14:58</t>
+          <t>22/10/2023 14:53</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>3.32</v>
+        <v>4.17</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
@@ -20040,16 +20040,16 @@
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:53</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-mjallby/pEN1XDph/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-hammarby/bNlqFWUN/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,15 +20100,15 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>22/10/2023 17:25</t>
+          <t>22/10/2023 17:27</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>11.24</v>
+        <v>5.23</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -20116,15 +20116,15 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>13.45</v>
+        <v>5.71</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>22/10/2023 17:28</t>
+          <t>22/10/2023 17:29</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>21.58</v>
+        <v>6.6</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
@@ -20132,16 +20132,16 @@
         </is>
       </c>
       <c r="T214" t="n">
-        <v>26.94</v>
+        <v>7.41</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>22/10/2023 17:28</t>
+          <t>22/10/2023 17:29</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varberg/GbqlEjpU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-norrkoping/WAJcYgVo/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>22/10/2023 17:27</t>
+          <t>22/10/2023 17:25</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>5.23</v>
+        <v>11.24</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,15 +20208,15 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>5.71</v>
+        <v>13.45</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>22/10/2023 17:29</t>
+          <t>22/10/2023 17:28</t>
         </is>
       </c>
       <c r="R215" t="n">
-        <v>6.6</v>
+        <v>21.58</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
@@ -20224,16 +20224,16 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>7.41</v>
+        <v>26.94</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>22/10/2023 17:29</t>
+          <t>22/10/2023 17:28</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-norrkoping/WAJcYgVo/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-varberg/GbqlEjpU/</t>
         </is>
       </c>
     </row>
@@ -20629,71 +20629,71 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
         <v>1</v>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Varnamo</t>
-        </is>
-      </c>
-      <c r="I220" t="n">
-        <v>3</v>
-      </c>
       <c r="J220" t="n">
-        <v>2.11</v>
+        <v>4.05</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:55</t>
+          <t>29/10/2023 14:56</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.56</v>
+        <v>3.9</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:55</t>
+          <t>29/10/2023 14:56</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>3.5</v>
+        <v>1.88</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>3.46</v>
+        <v>1.45</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:55</t>
+          <t>29/10/2023 14:56</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varnamo/prkcMmxi/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-malmo-ff/6ijgNTMp/</t>
         </is>
       </c>
     </row>
@@ -20813,71 +20813,71 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" t="n">
-        <v>4.05</v>
+        <v>2.11</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>29/10/2023 14:56</t>
+          <t>29/10/2023 14:55</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.9</v>
+        <v>3.56</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>29/10/2023 14:56</t>
+          <t>29/10/2023 14:55</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>1.88</v>
+        <v>3.5</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T222" t="n">
-        <v>1.45</v>
+        <v>3.46</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>29/10/2023 14:56</t>
+          <t>29/10/2023 14:55</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-malmo-ff/6ijgNTMp/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varnamo/prkcMmxi/</t>
         </is>
       </c>
     </row>
@@ -21365,71 +21365,347 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>4</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>2</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-malmo-ff/UXmr0uye/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
           <t>Halmstad</t>
         </is>
       </c>
-      <c r="G228" t="n">
+      <c r="G229" t="n">
         <v>3</v>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>Kalmar</t>
         </is>
       </c>
-      <c r="I228" t="n">
+      <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
+      <c r="J229" t="n">
         <v>2.38</v>
       </c>
-      <c r="K228" t="inlineStr">
+      <c r="K229" t="inlineStr">
         <is>
           <t>29/10/2023 17:43</t>
         </is>
       </c>
-      <c r="L228" t="n">
+      <c r="L229" t="n">
         <v>2.53</v>
       </c>
-      <c r="M228" t="inlineStr">
+      <c r="M229" t="inlineStr">
         <is>
           <t>05/11/2023 14:57</t>
         </is>
       </c>
-      <c r="N228" t="n">
+      <c r="N229" t="n">
         <v>3.32</v>
       </c>
-      <c r="O228" t="inlineStr">
+      <c r="O229" t="inlineStr">
         <is>
           <t>29/10/2023 17:43</t>
         </is>
       </c>
-      <c r="P228" t="n">
+      <c r="P229" t="n">
         <v>3.33</v>
       </c>
-      <c r="Q228" t="inlineStr">
+      <c r="Q229" t="inlineStr">
         <is>
           <t>05/11/2023 14:47</t>
         </is>
       </c>
-      <c r="R228" t="n">
+      <c r="R229" t="n">
         <v>3.21</v>
       </c>
-      <c r="S228" t="inlineStr">
+      <c r="S229" t="inlineStr">
         <is>
           <t>29/10/2023 17:43</t>
         </is>
       </c>
-      <c r="T228" t="n">
+      <c r="T229" t="n">
         <v>3.01</v>
       </c>
-      <c r="U228" t="inlineStr">
+      <c r="U229" t="inlineStr">
         <is>
           <t>05/11/2023 14:57</t>
         </is>
       </c>
-      <c r="V228" t="inlineStr">
+      <c r="V229" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-kalmar/Cdwmaaj1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45235.72916666666</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>2</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:06</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-degerfors/jskv1LLl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45235.72916666666</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:23</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:22</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T231" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:23</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-brommapojkarna/QasibJ57/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V231"/>
+  <dimension ref="A1:V233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5292,11 +5292,11 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>08/05/2023 18:54</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.47</v>
+        <v>3.66</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>08/05/2023 18:59</t>
+          <t>08/05/2023 18:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5384,44 +5384,44 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>08/05/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N54" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O54" t="inlineStr">
+      <c r="R54" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S54" t="inlineStr">
         <is>
           <t>04/05/2023 19:12</t>
         </is>
       </c>
-      <c r="P54" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q54" t="inlineStr">
+      <c r="T54" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U54" t="inlineStr">
         <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R54" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T54" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:56</t>
-        </is>
-      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 16:42</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
+          <t>01/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
           <t>01/10/2023 14:48</t>
         </is>
       </c>
-      <c r="N196" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P196" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q196" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:52</t>
-        </is>
-      </c>
-      <c r="R196" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>25/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T196" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U196" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:56</t>
-        </is>
-      </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
         </is>
       </c>
     </row>
@@ -18513,71 +18513,71 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G197" t="n">
+        <v>3</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
         <v>2</v>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
       <c r="J197" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>01/10/2023 14:55</t>
+          <t>01/10/2023 14:48</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4.07</v>
+        <v>4.31</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>4.51</v>
+        <v>5.05</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>24/09/2023 16:42</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T197" t="n">
-        <v>3.82</v>
+        <v>5.5</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>01/10/2023 14:48</t>
+          <t>01/10/2023 14:56</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-aik/n5Cb3ZVB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-degerfors/QeB22goI/</t>
         </is>
       </c>
     </row>
@@ -20629,22 +20629,22 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I220" t="n">
         <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>4.05</v>
+        <v>3.31</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -20652,15 +20652,15 @@
         </is>
       </c>
       <c r="L220" t="n">
-        <v>7.1</v>
+        <v>4.35</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:56</t>
+          <t>29/10/2023 14:51</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -20668,15 +20668,15 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>5</v>
+        <v>4.21</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:56</t>
+          <t>29/10/2023 14:51</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="T220" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:56</t>
+          <t>29/10/2023 14:51</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-malmo-ff/6ijgNTMp/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-hacken/IVVkNBxi/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I221" t="n">
         <v>1</v>
       </c>
       <c r="J221" t="n">
-        <v>3.31</v>
+        <v>4.05</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>4.35</v>
+        <v>7.1</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>29/10/2023 14:51</t>
+          <t>29/10/2023 14:56</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.68</v>
+        <v>3.9</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>4.21</v>
+        <v>5</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>29/10/2023 14:51</t>
+          <t>29/10/2023 14:56</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>29/10/2023 14:51</t>
+          <t>29/10/2023 14:56</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-hacken/IVVkNBxi/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-malmo-ff/6ijgNTMp/</t>
         </is>
       </c>
     </row>
@@ -21365,71 +21365,71 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>29/10/2023 15:13</t>
+          <t>29/10/2023 17:43</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>3.3</v>
+        <v>2.53</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:57</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>3.92</v>
+        <v>3.32</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>29/10/2023 15:13</t>
+          <t>29/10/2023 17:43</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>4.17</v>
+        <v>3.33</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>05/11/2023 14:55</t>
+          <t>05/11/2023 14:47</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>2.89</v>
+        <v>3.21</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>29/10/2023 15:13</t>
+          <t>29/10/2023 17:43</t>
         </is>
       </c>
       <c r="T228" t="n">
-        <v>2.06</v>
+        <v>3.01</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>05/11/2023 14:58</t>
+          <t>05/11/2023 14:57</t>
         </is>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-malmo-ff/UXmr0uye/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-kalmar/Cdwmaaj1/</t>
         </is>
       </c>
     </row>
@@ -21457,71 +21457,71 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>29/10/2023 17:43</t>
+          <t>29/10/2023 15:13</t>
         </is>
       </c>
       <c r="L229" t="n">
-        <v>2.53</v>
+        <v>3.3</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>05/11/2023 14:57</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>3.32</v>
+        <v>3.92</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>29/10/2023 17:43</t>
+          <t>29/10/2023 15:13</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>3.33</v>
+        <v>4.17</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>05/11/2023 14:47</t>
+          <t>05/11/2023 14:55</t>
         </is>
       </c>
       <c r="R229" t="n">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>29/10/2023 17:43</t>
+          <t>29/10/2023 15:13</t>
         </is>
       </c>
       <c r="T229" t="n">
-        <v>3.01</v>
+        <v>2.06</v>
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>05/11/2023 14:57</t>
+          <t>05/11/2023 14:58</t>
         </is>
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-kalmar/Cdwmaaj1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-malmo-ff/UXmr0uye/</t>
         </is>
       </c>
     </row>
@@ -21706,6 +21706,190 @@
       <c r="V231" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-brommapojkarna/QasibJ57/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45236.79166666666</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>4</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Varberg</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>3</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T232" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-varberg/M7pz216r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45236.79861111111</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:07</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:07</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:07</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-aik/prN6JTyG/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V233"/>
+  <dimension ref="A1:V238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>17/04/2023 19:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/04/2023 14:58</t>
+          <t>23/04/2023 14:56</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.63</v>
+        <v>4.31</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>17/04/2023 19:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.48</v>
+        <v>4.4</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/04/2023 14:59</t>
+          <t>23/04/2023 14:56</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.1</v>
+        <v>6.27</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>17/04/2023 19:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.42</v>
+        <v>6.6</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/04/2023 14:59</t>
+          <t>23/04/2023 14:56</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-halmstad/dScUk7rT/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-ifk-goteborg/UF6Dgkq4/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>17/04/2023 19:12</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/04/2023 14:56</t>
+          <t>23/04/2023 14:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.31</v>
+        <v>3.63</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>17/04/2023 19:12</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.4</v>
+        <v>3.48</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/04/2023 14:56</t>
+          <t>23/04/2023 14:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.27</v>
+        <v>5.1</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>17/04/2023 19:12</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.6</v>
+        <v>5.42</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/04/2023 14:56</t>
+          <t>23/04/2023 14:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-ifk-goteborg/UF6Dgkq4/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-halmstad/dScUk7rT/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.58</v>
+        <v>3.18</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.99</v>
+        <v>3.51</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.46</v>
+        <v>3.59</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.36</v>
+        <v>2.3</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>24/04/2023 19:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.04</v>
+        <v>2.21</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,22 +3617,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.18</v>
+        <v>1.58</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.51</v>
+        <v>1.99</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,15 +3640,15 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.59</v>
+        <v>4.46</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>5.36</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/04/2023 19:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.21</v>
+        <v>4.04</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-elfsborg/YD883QCS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-sirius/rJWn8lbc/</t>
         </is>
       </c>
     </row>
@@ -3701,30 +3701,30 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,40 +3732,40 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.97</v>
+        <v>4.08</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:22</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>8.300000000000001</v>
+        <v>4.73</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>24/04/2023 19:13</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>10.38</v>
+        <v>3.6</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>29/04/2023 17:29</t>
+          <t>29/04/2023 17:23</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
         </is>
       </c>
     </row>
@@ -3793,30 +3793,30 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,40 +3824,40 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.08</v>
+        <v>5.97</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:22</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.73</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>24/04/2023 19:13</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.6</v>
+        <v>10.38</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>29/04/2023 17:23</t>
+          <t>29/04/2023 17:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-brommapojkarna/jkJ346cM/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-varnamo/CbKa5nrG/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:46</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.38</v>
+        <v>3.78</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.74</v>
+        <v>3.96</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>6.74</v>
+        <v>3.79</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.7</v>
+        <v>4.09</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.94</v>
+        <v>1.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.98</v>
+        <v>1.45</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.04</v>
+        <v>4.74</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:39</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.56</v>
+        <v>6.74</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.79</v>
+        <v>7.7</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>2.94</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>2.98</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:46</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.96</v>
+        <v>3.04</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:39</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.79</v>
+        <v>2.56</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.09</v>
+        <v>2.79</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5292,44 +5292,44 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>08/05/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>04/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="R53" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S53" t="inlineStr">
         <is>
           <t>04/05/2023 19:12</t>
         </is>
       </c>
-      <c r="P53" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q53" t="inlineStr">
+      <c r="T53" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U53" t="inlineStr">
         <is>
           <t>08/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>04/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>08/05/2023 18:56</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5384,11 +5384,11 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>08/05/2023 18:54</t>
+          <t>08/05/2023 18:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.47</v>
+        <v>3.66</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>08/05/2023 18:59</t>
+          <t>08/05/2023 18:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-norrkoping/rLctEGQm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-ifk-goteborg/lbbxFdBs/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.15</v>
+        <v>1.39</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,48 +5932,48 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.59</v>
+        <v>1.51</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>14/05/2023 14:33</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>09/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>14/05/2023 14:57</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="O60" t="inlineStr">
+      <c r="R60" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="S60" t="inlineStr">
         <is>
           <t>09/05/2023 19:12</t>
         </is>
       </c>
-      <c r="P60" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="Q60" t="inlineStr">
+      <c r="T60" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="U60" t="inlineStr">
         <is>
           <t>14/05/2023 14:57</t>
         </is>
       </c>
-      <c r="R60" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>09/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>14/05/2023 14:57</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-sirius/vqylXeXP/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-varnamo/IwjgBEA6/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.39</v>
+        <v>2.15</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.51</v>
+        <v>2.59</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:33</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.93</v>
+        <v>3.32</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.58</v>
+        <v>3.13</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>8.19</v>
+        <v>3.65</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>6.34</v>
+        <v>3.11</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-varnamo/IwjgBEA6/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-sirius/vqylXeXP/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.39</v>
+        <v>3.69</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:25</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.47</v>
+        <v>3.91</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>15/05/2023 19:12</t>
+          <t>15/05/2023 06:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.5</v>
+        <v>4.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/05/2023 17:21</t>
+          <t>21/05/2023 17:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.69</v>
+        <v>3.39</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:25</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.91</v>
+        <v>2.47</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>15/05/2023 06:12</t>
+          <t>15/05/2023 19:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.06</v>
+        <v>2.5</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/05/2023 17:28</t>
+          <t>21/05/2023 17:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-halmstad/v7JzOifC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-hammarby/hjHOQgAg/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>04/06/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>29/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
           <t>04/06/2023 17:29</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>28/05/2023 17:42</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>04/06/2023 17:29</t>
-        </is>
-      </c>
       <c r="R88" t="n">
-        <v>3.23</v>
+        <v>4.28</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>28/05/2023 17:42</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 17:29</t>
+          <t>04/06/2023 17:27</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
         </is>
       </c>
     </row>
@@ -8577,46 +8577,46 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>04/06/2023 17:28</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,24 +8624,24 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.28</v>
+        <v>3.23</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 17:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.09</v>
+        <v>4.46</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>04/06/2023 17:27</t>
+          <t>04/06/2023 17:29</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varnamo/fc8ikUhB/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-djurgarden/bVErijOb/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
       <c r="J93" t="n">
-        <v>5.05</v>
+        <v>1.61</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>5.47</v>
+        <v>1.65</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.16</v>
+        <v>4.22</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.91</v>
+        <v>4.11</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.65</v>
+        <v>5.37</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.69</v>
+        <v>5.48</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-malmo-ff/bijJ3T74/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-degerfors/K0iF49hb/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>1.61</v>
+        <v>5.05</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,48 +9060,48 @@
         </is>
       </c>
       <c r="L94" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>10/06/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>05/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>10/06/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
         <v>1.65</v>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>10/06/2023 14:58</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="O94" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>05/06/2023 19:12</t>
         </is>
       </c>
-      <c r="P94" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>10/06/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>05/06/2023 19:12</t>
-        </is>
-      </c>
       <c r="T94" t="n">
-        <v>5.48</v>
+        <v>1.69</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 14:58</t>
+          <t>10/06/2023 14:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-degerfors/K0iF49hb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-malmo-ff/bijJ3T74/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.29</v>
+        <v>2.94</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.71</v>
+        <v>3.26</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9632,11 +9632,11 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:53</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.06</v>
+        <v>2.52</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.94</v>
+        <v>2.29</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.26</v>
+        <v>2.71</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:53</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.76</v>
+        <v>2.48</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>5.14</v>
+        <v>2.35</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>02/07/2023 14:59</t>
+          <t>02/07/2023 14:56</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.96</v>
+        <v>3.43</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.69</v>
+        <v>3.32</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>02/07/2023 14:59</t>
+          <t>02/07/2023 14:58</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.94</v>
+        <v>2.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.6</v>
+        <v>3.33</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>02/07/2023 14:55</t>
+          <t>02/07/2023 14:58</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hacken/p0QbqaMk/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-ifk-goteborg/IDO6swi2/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.48</v>
+        <v>3.76</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.35</v>
+        <v>5.14</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/07/2023 14:56</t>
+          <t>02/07/2023 14:59</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.43</v>
+        <v>3.96</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.32</v>
+        <v>4.69</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>02/07/2023 14:58</t>
+          <t>02/07/2023 14:59</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.91</v>
+        <v>1.94</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.33</v>
+        <v>1.6</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>02/07/2023 14:58</t>
+          <t>02/07/2023 14:55</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-ifk-goteborg/IDO6swi2/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-hacken/p0QbqaMk/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.72</v>
+        <v>2.09</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:56</t>
+          <t>10/07/2023 18:31</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>4.15</v>
+        <v>3.76</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:56</t>
+          <t>10/07/2023 18:58</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>5.35</v>
+        <v>4.11</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:57</t>
+          <t>10/07/2023 18:58</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-varberg/OAa62vTR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-halmstad/YqoxcIjk/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,48 +10992,48 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:31</t>
+          <t>10/07/2023 18:56</t>
         </is>
       </c>
       <c r="N115" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>3.76</v>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>10/07/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S115" t="inlineStr">
         <is>
           <t>03/07/2023 19:11</t>
         </is>
       </c>
-      <c r="P115" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>10/07/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R115" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
       <c r="T115" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:58</t>
+          <t>10/07/2023 18:57</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-halmstad/YqoxcIjk/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-varberg/OAa62vTR/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.74</v>
+        <v>1.34</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,31 +11184,31 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.54</v>
+        <v>6.13</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.59</v>
+        <v>6</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>15/07/2023 17:23</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.94</v>
+        <v>9.24</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.61</v>
+        <v>8.41</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
         </is>
       </c>
     </row>
@@ -11245,30 +11245,30 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>1.28</v>
+        <v>2.45</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.34</v>
+        <v>2.74</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,40 +11276,40 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>6.13</v>
+        <v>3.54</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>6</v>
+        <v>3.59</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
+          <t>15/07/2023 17:23</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>09/07/2023 15:11</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
           <t>15/07/2023 17:29</t>
         </is>
       </c>
-      <c r="R118" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T118" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>15/07/2023 17:29</t>
-        </is>
-      </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
         </is>
       </c>
     </row>
@@ -11337,46 +11337,46 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>16/07/2023 14:42</t>
+          <t>16/07/2023 14:40</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.96</v>
+        <v>3.64</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.44</v>
+        <v>4.08</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>6.61</v>
+        <v>4.39</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>10/07/2023 19:12</t>
+          <t>09/07/2023 17:41</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>8.41</v>
+        <v>5.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
         </is>
       </c>
     </row>
@@ -11429,46 +11429,46 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16/07/2023 14:40</t>
+          <t>16/07/2023 14:42</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.64</v>
+        <v>4.96</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.08</v>
+        <v>5.44</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.39</v>
+        <v>6.61</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/07/2023 17:41</t>
+          <t>10/07/2023 19:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.17</v>
+        <v>8.41</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-kalmar/IXKuHwrL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-ifk-goteborg/dOJqGccR/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>3</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
       <c r="J143" t="n">
-        <v>2.04</v>
+        <v>2.91</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.3</v>
+        <v>3.06</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.56</v>
+        <v>3.09</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:37</t>
+          <t>07/08/2023 18:59</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.73</v>
+        <v>2.74</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>3.37</v>
+        <v>2.66</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>07/08/2023 18:38</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.32</v>
+        <v>2.04</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.32</v>
+        <v>2.3</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:44</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>5.72</v>
+        <v>3.56</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>5.71</v>
+        <v>3.37</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:58</t>
+          <t>07/08/2023 18:37</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>9.93</v>
+        <v>3.73</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>9.779999999999999</v>
+        <v>3.37</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>07/08/2023 18:58</t>
+          <t>07/08/2023 18:38</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-halmstad/IV5ZIKU5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-ifk-goteborg/dM4wIvpC/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G145" t="n">
+        <v>3</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Mjallby</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>3</v>
-      </c>
       <c r="J145" t="n">
-        <v>2.91</v>
+        <v>1.32</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.06</v>
+        <v>1.32</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:44</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.09</v>
+        <v>5.72</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.07</v>
+        <v>5.71</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>07/08/2023 18:59</t>
+          <t>07/08/2023 18:58</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>2.74</v>
+        <v>9.93</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.66</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-mjallby/js91Mgyb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-halmstad/IV5ZIKU5/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,63 +14105,63 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.49</v>
+        <v>3.11</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.54</v>
+        <v>3.26</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:27</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.4</v>
+        <v>3.72</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>13/08/2023 16:37</t>
+          <t>13/08/2023 17:29</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.92</v>
+        <v>2.23</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.97</v>
+        <v>2.3</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:28</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,63 +14197,63 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150" t="n">
-        <v>3.11</v>
+        <v>2.49</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.26</v>
+        <v>2.54</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:27</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:29</t>
+          <t>13/08/2023 16:37</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.23</v>
+        <v>2.92</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.3</v>
+        <v>2.97</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:28</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
         </is>
       </c>
     </row>
@@ -14373,71 +14373,71 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Degerfors</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
       <c r="J152" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>07/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>14/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>07/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>14/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>07/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
         <v>1.83</v>
       </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>05/08/2023 21:08</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>14/08/2023 18:58</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>05/08/2023 21:08</t>
-        </is>
-      </c>
-      <c r="P152" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>14/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R152" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>05/08/2023 21:08</t>
-        </is>
-      </c>
-      <c r="T152" t="n">
-        <v>4.22</v>
-      </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>14/08/2023 18:58</t>
+          <t>14/08/2023 18:59</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-degerfors/W0Uzygji/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-malmo-ff/IctgC9Dj/</t>
         </is>
       </c>
     </row>
@@ -14465,71 +14465,71 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>1</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
       <c r="J153" t="n">
-        <v>4.27</v>
+        <v>1.83</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>05/08/2023 21:08</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>4.71</v>
+        <v>1.86</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>14/08/2023 18:59</t>
+          <t>14/08/2023 18:58</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.69</v>
+        <v>3.86</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>05/08/2023 21:08</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>14/08/2023 18:59</t>
+          <t>14/08/2023 18:52</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>1.89</v>
+        <v>4.32</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>05/08/2023 21:08</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.83</v>
+        <v>4.22</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>14/08/2023 18:59</t>
+          <t>14/08/2023 18:58</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-malmo-ff/IctgC9Dj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-degerfors/W0Uzygji/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.77</v>
+        <v>1.38</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.81</v>
+        <v>1.49</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.27</v>
+        <v>5.17</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.3</v>
+        <v>4.51</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:08</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>2.75</v>
+        <v>7.8</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2.71</v>
+        <v>7.11</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.38</v>
+        <v>2.77</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.49</v>
+        <v>2.81</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>5.17</v>
+        <v>3.27</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:08</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>7.8</v>
+        <v>2.75</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>7.11</v>
+        <v>2.71</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J175" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.41</v>
+        <v>3.86</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>5.11</v>
+        <v>3.47</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:23</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>7.64</v>
+        <v>2.58</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>7.85</v>
+        <v>1.96</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:29</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.86</v>
+        <v>1.41</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.47</v>
+        <v>5.11</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:23</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.58</v>
+        <v>7.64</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.96</v>
+        <v>7.85</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
         </is>
       </c>
     </row>
@@ -18973,71 +18973,71 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>07/10/2023 14:43</t>
+          <t>07/10/2023 14:58</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.66</v>
+        <v>3.59</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>07/10/2023 14:43</t>
+          <t>07/10/2023 14:54</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>5.41</v>
+        <v>3.99</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="T202" t="n">
-        <v>4.95</v>
+        <v>4.34</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>07/10/2023 14:54</t>
+          <t>07/10/2023 14:58</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-mjallby/YLEA0XFU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-degerfors/69qPJfGh/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>01/10/2023 14:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>07/10/2023 14:58</t>
+          <t>07/10/2023 14:43</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>01/10/2023 14:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.59</v>
+        <v>3.66</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
+          <t>07/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T203" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
           <t>07/10/2023 14:54</t>
         </is>
       </c>
-      <c r="R203" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:12</t>
-        </is>
-      </c>
-      <c r="T203" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="U203" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:58</t>
-        </is>
-      </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-degerfors/69qPJfGh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-mjallby/YLEA0XFU/</t>
         </is>
       </c>
     </row>
@@ -19893,22 +19893,22 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -19916,15 +19916,15 @@
         </is>
       </c>
       <c r="L212" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:53</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.13</v>
+        <v>3.73</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -19932,15 +19932,15 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>22/10/2023 14:58</t>
+          <t>22/10/2023 14:53</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>3.32</v>
+        <v>4.17</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
@@ -19948,16 +19948,16 @@
         </is>
       </c>
       <c r="T212" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:53</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-mjallby/pEN1XDph/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-hammarby/bNlqFWUN/</t>
         </is>
       </c>
     </row>
@@ -19985,22 +19985,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -20008,15 +20008,15 @@
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>22/10/2023 14:53</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.73</v>
+        <v>3.13</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -20024,15 +20024,15 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.37</v>
+        <v>3.13</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>22/10/2023 14:53</t>
+          <t>22/10/2023 14:58</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.17</v>
+        <v>3.32</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
@@ -20040,16 +20040,16 @@
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>22/10/2023 14:53</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-hammarby/bNlqFWUN/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-mjallby/pEN1XDph/</t>
         </is>
       </c>
     </row>
@@ -20629,71 +20629,71 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="n">
-        <v>3.31</v>
+        <v>2.11</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>4.35</v>
+        <v>2.2</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:51</t>
+          <t>29/10/2023 14:55</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.68</v>
+        <v>3.56</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>4.21</v>
+        <v>3.5</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:51</t>
+          <t>29/10/2023 14:55</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>1.78</v>
+        <v>3.46</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:51</t>
+          <t>29/10/2023 14:55</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-hacken/IVVkNBxi/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varnamo/prkcMmxi/</t>
         </is>
       </c>
     </row>
@@ -20813,71 +20813,71 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G222" t="n">
+        <v>2</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
         <v>1</v>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Varnamo</t>
-        </is>
-      </c>
-      <c r="I222" t="n">
-        <v>3</v>
-      </c>
       <c r="J222" t="n">
-        <v>2.11</v>
+        <v>3.31</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.2</v>
+        <v>4.35</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>29/10/2023 14:55</t>
+          <t>29/10/2023 14:51</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.56</v>
+        <v>3.68</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.5</v>
+        <v>4.21</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>29/10/2023 14:55</t>
+          <t>29/10/2023 14:51</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>3.5</v>
+        <v>2.18</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T222" t="n">
-        <v>3.46</v>
+        <v>1.78</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>29/10/2023 14:55</t>
+          <t>29/10/2023 14:51</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varnamo/prkcMmxi/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-hacken/IVVkNBxi/</t>
         </is>
       </c>
     </row>
@@ -21890,6 +21890,466 @@
       <c r="V233" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-aik/prN6JTyG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>2</v>
+      </c>
+      <c r="J234" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-mjallby/G4vICIK0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>2</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>2</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-halmstad/pG0ZKtDK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>3</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-varnamo/IgUxMMcE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>2</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T237" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-hacken/xEuEDb5f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sirius</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>2</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-norrkoping/tnn5FKzr/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V238"/>
+  <dimension ref="A1:V241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
       <c r="J10" t="n">
-        <v>5.01</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7.44</v>
+        <v>2.59</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.15</v>
+        <v>3.61</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.79</v>
+        <v>3.53</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>3.22</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>2.83</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>08/04/2023 14:56</t>
+          <t>08/04/2023 14:55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.21</v>
+        <v>5.01</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.59</v>
+        <v>7.44</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.61</v>
+        <v>4.15</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.53</v>
+        <v>4.79</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.22</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.83</v>
+        <v>1.47</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>08/04/2023 14:55</t>
+          <t>08/04/2023 14:56</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-halmstad/UHJtc3Yb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-malmo-ff/GEFxbqJh/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.99</v>
+        <v>3.49</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>10/04/2023 13:12</t>
+          <t>11/04/2023 07:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.83</v>
+        <v>3.79</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>16/04/2023 17:21</t>
+          <t>16/04/2023 16:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>10/04/2023 13:12</t>
+          <t>11/04/2023 07:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.73</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>16/04/2023 17:21</t>
+          <t>16/04/2023 16:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.88</v>
+        <v>2.13</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>10/04/2023 13:12</t>
+          <t>11/04/2023 07:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.65</v>
+        <v>2.13</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>16/04/2023 17:21</t>
+          <t>16/04/2023 16:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-degerfors/Mk35eBEi/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-djurgarden/ra41diao/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.49</v>
+        <v>1.99</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11/04/2023 07:12</t>
+          <t>10/04/2023 13:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.79</v>
+        <v>1.83</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16/04/2023 16:59</t>
+          <t>16/04/2023 17:21</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>11/04/2023 07:12</t>
+          <t>10/04/2023 13:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.73</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>16/04/2023 16:59</t>
+          <t>16/04/2023 17:21</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.13</v>
+        <v>3.88</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>11/04/2023 07:12</t>
+          <t>10/04/2023 13:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.13</v>
+        <v>4.65</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>16/04/2023 16:59</t>
+          <t>16/04/2023 17:21</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-djurgarden/ra41diao/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-degerfors/Mk35eBEi/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.71</v>
+        <v>3.19</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>16/04/2023 17:43</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.16</v>
+        <v>3.16</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>24/04/2023 18:59</t>
+          <t>24/04/2023 18:55</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.82</v>
+        <v>3.56</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>16/04/2023 17:43</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>24/04/2023 18:58</t>
+          <t>24/04/2023 18:52</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.96</v>
+        <v>2.29</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>16/04/2023 17:43</t>
+          <t>18/04/2023 01:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.03</v>
+        <v>2.43</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>24/04/2023 18:58</t>
+          <t>24/04/2023 18:55</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-aik/xMucoRjp/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-mjallby/GCv1po6j/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.19</v>
+        <v>3.71</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>16/04/2023 17:43</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.16</v>
+        <v>4.16</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>24/04/2023 18:55</t>
+          <t>24/04/2023 18:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.56</v>
+        <v>3.82</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>16/04/2023 17:43</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>24/04/2023 18:52</t>
+          <t>24/04/2023 18:58</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.29</v>
+        <v>1.96</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>18/04/2023 01:42</t>
+          <t>16/04/2023 17:43</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.43</v>
+        <v>2.03</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>24/04/2023 18:55</t>
+          <t>24/04/2023 18:58</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-mjallby/GCv1po6j/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-aik/xMucoRjp/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:46</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.78</v>
+        <v>3.99</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.96</v>
+        <v>3.41</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.79</v>
+        <v>5.37</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.09</v>
+        <v>4.21</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:46</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.38</v>
+        <v>3.78</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.74</v>
+        <v>3.96</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.74</v>
+        <v>3.79</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.7</v>
+        <v>4.09</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.94</v>
+        <v>1.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.98</v>
+        <v>1.45</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.04</v>
+        <v>4.74</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:39</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.56</v>
+        <v>6.74</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.79</v>
+        <v>7.7</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.01</v>
+        <v>2.98</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.99</v>
+        <v>3.25</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.41</v>
+        <v>3.04</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:39</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>5.37</v>
+        <v>2.56</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.21</v>
+        <v>2.79</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.48</v>
+        <v>2.59</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:53</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.69</v>
+        <v>3.32</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:53</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:47</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-djurgarden/vmikCfe0/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-sirius/vqylXeXP/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>3</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Sirius</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:53</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.32</v>
+        <v>3.69</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:53</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.11</v>
+        <v>3.02</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:47</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-sirius/vqylXeXP/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-djurgarden/vmikCfe0/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Brommapojkarna</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.6</v>
+        <v>5.22</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>09/05/2023 16:42</t>
+          <t>09/05/2023 16:41</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.74</v>
+        <v>7.71</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>14/05/2023 17:22</t>
+          <t>14/05/2023 17:29</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.24</v>
+        <v>4.34</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>09/05/2023 16:42</t>
+          <t>09/05/2023 16:41</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.73</v>
+        <v>4.58</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>14/05/2023 17:22</t>
+          <t>14/05/2023 17:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>5.77</v>
+        <v>1.64</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>09/05/2023 16:42</t>
+          <t>09/05/2023 16:41</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.38</v>
+        <v>1.46</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>14/05/2023 17:22</t>
+          <t>14/05/2023 17:29</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-brommapojkarna/S8XqYyIJ/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-malmo-ff/Q3g19huJ/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>5.22</v>
+        <v>1.6</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>09/05/2023 16:41</t>
+          <t>09/05/2023 16:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>7.71</v>
+        <v>1.74</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>14/05/2023 17:29</t>
+          <t>14/05/2023 17:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>09/05/2023 16:41</t>
+          <t>09/05/2023 16:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.58</v>
+        <v>3.73</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>14/05/2023 17:29</t>
+          <t>14/05/2023 17:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.64</v>
+        <v>5.77</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>09/05/2023 16:41</t>
+          <t>09/05/2023 16:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.46</v>
+        <v>5.38</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>14/05/2023 17:29</t>
+          <t>14/05/2023 17:22</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-malmo-ff/Q3g19huJ/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-brommapojkarna/S8XqYyIJ/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>1.61</v>
+        <v>5.05</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,48 +8968,48 @@
         </is>
       </c>
       <c r="L93" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>10/06/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>05/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>10/06/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>1.65</v>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>10/06/2023 14:58</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="O93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>05/06/2023 19:12</t>
         </is>
       </c>
-      <c r="P93" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>10/06/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>05/06/2023 19:12</t>
-        </is>
-      </c>
       <c r="T93" t="n">
-        <v>5.48</v>
+        <v>1.69</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>10/06/2023 14:58</t>
+          <t>10/06/2023 14:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-degerfors/K0iF49hb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-malmo-ff/bijJ3T74/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
       <c r="J94" t="n">
-        <v>5.05</v>
+        <v>1.61</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>5.47</v>
+        <v>1.65</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.16</v>
+        <v>4.22</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.91</v>
+        <v>4.11</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.65</v>
+        <v>5.37</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.69</v>
+        <v>5.48</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-malmo-ff/bijJ3T74/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-degerfors/K0iF49hb/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.94</v>
+        <v>2.29</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.26</v>
+        <v>2.71</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9632,11 +9632,11 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:53</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>01/07/2023 14:59</t>
+          <t>01/07/2023 14:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.29</v>
+        <v>2.94</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.71</v>
+        <v>3.26</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:53</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.06</v>
+        <v>2.52</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>01/07/2023 14:57</t>
+          <t>01/07/2023 14:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varnamo/Sr6c40bF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-aik/YL6g5tq9/</t>
         </is>
       </c>
     </row>
@@ -11153,30 +11153,30 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>1.28</v>
+        <v>2.45</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.34</v>
+        <v>2.74</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,40 +11184,40 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>6.13</v>
+        <v>3.54</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>08/07/2023 18:28</t>
+          <t>09/07/2023 15:11</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>6</v>
+        <v>3.59</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
+          <t>15/07/2023 17:23</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>09/07/2023 15:11</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
           <t>15/07/2023 17:29</t>
         </is>
       </c>
-      <c r="R117" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T117" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>15/07/2023 17:29</t>
-        </is>
-      </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
         </is>
       </c>
     </row>
@@ -11245,30 +11245,30 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.74</v>
+        <v>1.34</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,31 +11276,31 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.54</v>
+        <v>6.13</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.59</v>
+        <v>6</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/07/2023 17:23</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.94</v>
+        <v>9.24</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>09/07/2023 15:11</t>
+          <t>08/07/2023 18:28</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.61</v>
+        <v>8.41</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-sirius/ngbO8Fk1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-brommapojkarna/E36BBH5r/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.86</v>
+        <v>1.41</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.47</v>
+        <v>5.11</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:23</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.58</v>
+        <v>7.64</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>1.96</v>
+        <v>7.85</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:29</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J177" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.41</v>
+        <v>3.86</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>5.11</v>
+        <v>3.47</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:23</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>7.64</v>
+        <v>2.58</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>7.85</v>
+        <v>1.96</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:29</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,14 +18061,14 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>4.35</v>
+        <v>2.19</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>4.22</v>
+        <v>2.53</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.81</v>
+        <v>3.71</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>1.77</v>
+        <v>3.23</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>1.88</v>
+        <v>2.76</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>25/09/2023 18:59</t>
+          <t>25/09/2023 18:57</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -18153,14 +18153,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2.19</v>
+        <v>4.35</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.53</v>
+        <v>4.22</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.71</v>
+        <v>3.81</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.23</v>
+        <v>1.77</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.76</v>
+        <v>1.88</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>25/09/2023 18:57</t>
+          <t>25/09/2023 18:59</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
         </is>
       </c>
     </row>
@@ -18973,71 +18973,71 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>01/10/2023 14:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>07/10/2023 14:58</t>
+          <t>07/10/2023 14:43</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>01/10/2023 14:12</t>
+          <t>01/10/2023 16:42</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.59</v>
+        <v>3.66</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
+          <t>07/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T202" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
           <t>07/10/2023 14:54</t>
         </is>
       </c>
-      <c r="R202" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="S202" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:12</t>
-        </is>
-      </c>
-      <c r="T202" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="U202" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:58</t>
-        </is>
-      </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-degerfors/69qPJfGh/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-mjallby/YLEA0XFU/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>07/10/2023 14:43</t>
+          <t>07/10/2023 14:58</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.66</v>
+        <v>3.59</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>07/10/2023 14:43</t>
+          <t>07/10/2023 14:54</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>5.41</v>
+        <v>3.99</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>01/10/2023 16:42</t>
+          <t>01/10/2023 14:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>4.95</v>
+        <v>4.34</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>07/10/2023 14:54</t>
+          <t>07/10/2023 14:58</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-mjallby/YLEA0XFU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-degerfors/69qPJfGh/</t>
         </is>
       </c>
     </row>
@@ -20629,71 +20629,71 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G220" t="n">
+        <v>2</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
         <v>1</v>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Varnamo</t>
-        </is>
-      </c>
-      <c r="I220" t="n">
-        <v>3</v>
-      </c>
       <c r="J220" t="n">
-        <v>2.11</v>
+        <v>3.31</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>2.2</v>
+        <v>4.35</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:55</t>
+          <t>29/10/2023 14:51</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.56</v>
+        <v>3.68</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>3.5</v>
+        <v>4.21</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:55</t>
+          <t>29/10/2023 14:51</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>3.5</v>
+        <v>2.18</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>3.46</v>
+        <v>1.78</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>29/10/2023 14:55</t>
+          <t>29/10/2023 14:51</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varnamo/prkcMmxi/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-hacken/IVVkNBxi/</t>
         </is>
       </c>
     </row>
@@ -20813,71 +20813,71 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" t="n">
-        <v>3.31</v>
+        <v>2.11</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>4.35</v>
+        <v>2.2</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>29/10/2023 14:51</t>
+          <t>29/10/2023 14:55</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.68</v>
+        <v>3.56</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>4.21</v>
+        <v>3.5</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>29/10/2023 14:51</t>
+          <t>29/10/2023 14:55</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T222" t="n">
-        <v>1.78</v>
+        <v>3.46</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>29/10/2023 14:51</t>
+          <t>29/10/2023 14:55</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-hacken/IVVkNBxi/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varnamo/prkcMmxi/</t>
         </is>
       </c>
     </row>
@@ -21549,71 +21549,71 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I230" t="n">
         <v>2</v>
       </c>
       <c r="J230" t="n">
-        <v>1.26</v>
+        <v>2.17</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>30/10/2023 19:13</t>
+          <t>29/10/2023 17:43</t>
         </is>
       </c>
       <c r="L230" t="n">
-        <v>1.26</v>
+        <v>2.51</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>05/11/2023 17:06</t>
+          <t>05/11/2023 17:23</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>6.49</v>
+        <v>3.57</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>30/10/2023 19:13</t>
+          <t>29/10/2023 17:43</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>6.61</v>
+        <v>3.62</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>05/11/2023 17:29</t>
+          <t>05/11/2023 17:22</t>
         </is>
       </c>
       <c r="R230" t="n">
-        <v>9.859999999999999</v>
+        <v>3.35</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
-          <t>30/10/2023 19:13</t>
+          <t>29/10/2023 17:43</t>
         </is>
       </c>
       <c r="T230" t="n">
-        <v>11.05</v>
+        <v>2.84</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>05/11/2023 17:29</t>
+          <t>05/11/2023 17:23</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-degerfors/jskv1LLl/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-brommapojkarna/QasibJ57/</t>
         </is>
       </c>
     </row>
@@ -21641,71 +21641,71 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I231" t="n">
         <v>2</v>
       </c>
       <c r="J231" t="n">
-        <v>2.17</v>
+        <v>1.26</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>29/10/2023 17:43</t>
+          <t>30/10/2023 19:13</t>
         </is>
       </c>
       <c r="L231" t="n">
-        <v>2.51</v>
+        <v>1.26</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>05/11/2023 17:23</t>
+          <t>05/11/2023 17:06</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>3.57</v>
+        <v>6.49</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>29/10/2023 17:43</t>
+          <t>30/10/2023 19:13</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3.62</v>
+        <v>6.61</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>05/11/2023 17:22</t>
+          <t>05/11/2023 17:29</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>3.35</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
-          <t>29/10/2023 17:43</t>
+          <t>30/10/2023 19:13</t>
         </is>
       </c>
       <c r="T231" t="n">
-        <v>2.84</v>
+        <v>11.05</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>05/11/2023 17:23</t>
+          <t>05/11/2023 17:29</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-brommapojkarna/QasibJ57/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-degerfors/jskv1LLl/</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21917,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -21925,14 +21925,14 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>2.21</v>
+        <v>1.75</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -21940,15 +21940,15 @@
         </is>
       </c>
       <c r="L234" t="n">
-        <v>3.25</v>
+        <v>1.74</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>12/11/2023 14:57</t>
+          <t>12/11/2023 14:47</t>
         </is>
       </c>
       <c r="N234" t="n">
-        <v>3.51</v>
+        <v>4.2</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
@@ -21956,15 +21956,15 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>3.62</v>
+        <v>4</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>12/11/2023 14:57</t>
+          <t>12/11/2023 14:54</t>
         </is>
       </c>
       <c r="R234" t="n">
-        <v>3.32</v>
+        <v>4.44</v>
       </c>
       <c r="S234" t="inlineStr">
         <is>
@@ -21972,16 +21972,16 @@
         </is>
       </c>
       <c r="T234" t="n">
-        <v>2.17</v>
+        <v>4.9</v>
       </c>
       <c r="U234" t="inlineStr">
         <is>
-          <t>12/11/2023 14:57</t>
+          <t>12/11/2023 14:54</t>
         </is>
       </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-mjallby/G4vICIK0/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-elfsborg/O6awK0SQ/</t>
         </is>
       </c>
     </row>
@@ -22009,71 +22009,71 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J235" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>05/11/2023 15:13</t>
+          <t>06/11/2023 19:12</t>
         </is>
       </c>
       <c r="L235" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>12/11/2023 14:52</t>
+          <t>12/11/2023 14:55</t>
         </is>
       </c>
       <c r="N235" t="n">
-        <v>4.53</v>
+        <v>4.07</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>05/11/2023 15:13</t>
+          <t>06/11/2023 19:12</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>4.61</v>
+        <v>4.25</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>12/11/2023 14:52</t>
+          <t>12/11/2023 14:59</t>
         </is>
       </c>
       <c r="R235" t="n">
-        <v>6.3</v>
+        <v>4.32</v>
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>05/11/2023 15:13</t>
+          <t>06/11/2023 19:12</t>
         </is>
       </c>
       <c r="T235" t="n">
-        <v>5.88</v>
+        <v>4.67</v>
       </c>
       <c r="U235" t="inlineStr">
         <is>
-          <t>12/11/2023 14:52</t>
+          <t>12/11/2023 14:59</t>
         </is>
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-halmstad/pG0ZKtDK/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-varnamo/IgUxMMcE/</t>
         </is>
       </c>
     </row>
@@ -22101,71 +22101,71 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I236" t="n">
         <v>1</v>
       </c>
       <c r="J236" t="n">
-        <v>1.77</v>
+        <v>2.9</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>06/11/2023 19:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>12/11/2023 14:55</t>
+          <t>12/11/2023 14:58</t>
         </is>
       </c>
       <c r="N236" t="n">
-        <v>4.07</v>
+        <v>4.17</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>06/11/2023 19:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>4.25</v>
+        <v>4.38</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>12/11/2023 14:59</t>
+          <t>12/11/2023 14:58</t>
         </is>
       </c>
       <c r="R236" t="n">
-        <v>4.32</v>
+        <v>2.2</v>
       </c>
       <c r="S236" t="inlineStr">
         <is>
-          <t>06/11/2023 19:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="T236" t="n">
-        <v>4.67</v>
+        <v>2.72</v>
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>12/11/2023 14:59</t>
+          <t>12/11/2023 14:58</t>
         </is>
       </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-varnamo/IgUxMMcE/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-hacken/xEuEDb5f/</t>
         </is>
       </c>
     </row>
@@ -22193,22 +22193,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
         <v>2</v>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Hacken</t>
-        </is>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
       <c r="J237" t="n">
-        <v>2.9</v>
+        <v>2.21</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -22216,15 +22216,15 @@
         </is>
       </c>
       <c r="L237" t="n">
-        <v>2.23</v>
+        <v>3.25</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>12/11/2023 14:58</t>
+          <t>12/11/2023 14:57</t>
         </is>
       </c>
       <c r="N237" t="n">
-        <v>4.17</v>
+        <v>3.51</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -22232,15 +22232,15 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>4.38</v>
+        <v>3.62</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>12/11/2023 14:58</t>
+          <t>12/11/2023 14:57</t>
         </is>
       </c>
       <c r="R237" t="n">
-        <v>2.2</v>
+        <v>3.32</v>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -22248,16 +22248,16 @@
         </is>
       </c>
       <c r="T237" t="n">
-        <v>2.72</v>
+        <v>2.17</v>
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>12/11/2023 14:58</t>
+          <t>12/11/2023 14:57</t>
         </is>
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-hacken/xEuEDb5f/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-mjallby/G4vICIK0/</t>
         </is>
       </c>
     </row>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G238" t="n">
@@ -22293,63 +22293,339 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>2</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-halmstad/pG0ZKtDK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sirius</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>2</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
           <t>Norrkoping</t>
         </is>
       </c>
-      <c r="I238" t="n">
+      <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
+      <c r="J239" t="n">
         <v>2.16</v>
       </c>
-      <c r="K238" t="inlineStr">
+      <c r="K239" t="inlineStr">
         <is>
           <t>06/11/2023 19:12</t>
         </is>
       </c>
-      <c r="L238" t="n">
+      <c r="L239" t="n">
         <v>1.64</v>
       </c>
-      <c r="M238" t="inlineStr">
+      <c r="M239" t="inlineStr">
         <is>
           <t>12/11/2023 14:56</t>
         </is>
       </c>
-      <c r="N238" t="n">
+      <c r="N239" t="n">
         <v>4.04</v>
       </c>
-      <c r="O238" t="inlineStr">
+      <c r="O239" t="inlineStr">
         <is>
           <t>06/11/2023 19:12</t>
         </is>
       </c>
-      <c r="P238" t="n">
+      <c r="P239" t="n">
         <v>4.79</v>
       </c>
-      <c r="Q238" t="inlineStr">
+      <c r="Q239" t="inlineStr">
         <is>
           <t>12/11/2023 14:56</t>
         </is>
       </c>
-      <c r="R238" t="n">
+      <c r="R239" t="n">
         <v>3.03</v>
       </c>
-      <c r="S238" t="inlineStr">
+      <c r="S239" t="inlineStr">
         <is>
           <t>06/11/2023 19:12</t>
         </is>
       </c>
-      <c r="T238" t="n">
+      <c r="T239" t="n">
         <v>4.33</v>
       </c>
-      <c r="U238" t="inlineStr">
+      <c r="U239" t="inlineStr">
         <is>
           <t>12/11/2023 14:56</t>
         </is>
       </c>
-      <c r="V238" t="inlineStr">
+      <c r="V239" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-norrkoping/tnn5FKzr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>2</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:37</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:37</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T240" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:37</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-djurgarden/fkj9Evjl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Varberg</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>2</v>
+      </c>
+      <c r="J241" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-ifk-goteborg/pvqMBxz7/</t>
         </is>
       </c>
     </row>
